--- a/data/M型对比.xlsx
+++ b/data/M型对比.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huo/Projects/chondrite/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\chondrite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C5B250-3AE6-3C4C-AFFF-A78154C784B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2CC2B-85B1-42CD-9415-019FDF4397EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="2540" windowWidth="26440" windowHeight="14880" xr2:uid="{7DF65C39-7841-9043-93B5-B369BD6FC328}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{7DF65C39-7841-9043-93B5-B369BD6FC328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="M" localSheetId="0">Sheet1!$A$2:$C$226</definedName>
+    <definedName name="M" localSheetId="0">Sheet1!$A$2:$B$226</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,12 +66,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -104,7 +109,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,7 +129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,5459 +425,5460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66214505-A412-E549-8E46-933CABCCC7AA}">
-  <dimension ref="A1:E511"/>
+  <dimension ref="A1:D511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.15234375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>320</v>
       </c>
       <c r="B2" s="1">
         <v>8.6059999999999998E-2</v>
       </c>
+      <c r="C2" s="1">
+        <v>364</v>
+      </c>
       <c r="D2" s="1">
-        <v>364</v>
-      </c>
-      <c r="E2" s="1">
         <v>0.88999479962184491</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>330</v>
       </c>
       <c r="B3" s="1">
         <v>9.0179999999999996E-2</v>
       </c>
+      <c r="C3" s="1">
+        <v>365</v>
+      </c>
       <c r="D3" s="1">
-        <v>365</v>
-      </c>
-      <c r="E3" s="1">
         <v>0.89613590585977076</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>340</v>
       </c>
       <c r="B4" s="1">
         <v>9.1359999999999997E-2</v>
       </c>
+      <c r="C4" s="1">
+        <v>366</v>
+      </c>
       <c r="D4" s="1">
-        <v>366</v>
-      </c>
-      <c r="E4" s="1">
         <v>0.9008800983163967</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>350</v>
       </c>
       <c r="B5" s="1">
         <v>9.307E-2</v>
       </c>
+      <c r="C5" s="1">
+        <v>367</v>
+      </c>
       <c r="D5" s="1">
-        <v>367</v>
-      </c>
-      <c r="E5" s="1">
         <v>0.8691645337184295</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>360</v>
       </c>
       <c r="B6" s="1">
         <v>9.4960000000000003E-2</v>
       </c>
+      <c r="C6" s="1">
+        <v>368</v>
+      </c>
       <c r="D6" s="1">
-        <v>368</v>
-      </c>
-      <c r="E6" s="1">
         <v>0.88865608645021499</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>370</v>
       </c>
       <c r="B7" s="1">
         <v>9.776E-2</v>
       </c>
+      <c r="C7" s="1">
+        <v>369</v>
+      </c>
       <c r="D7" s="1">
-        <v>369</v>
-      </c>
-      <c r="E7" s="1">
         <v>0.90128869237507581</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>380</v>
       </c>
       <c r="B8" s="1">
         <v>0.10008</v>
       </c>
+      <c r="C8" s="1">
+        <v>370</v>
+      </c>
       <c r="D8" s="1">
-        <v>370</v>
-      </c>
-      <c r="E8" s="1">
         <v>0.88011189984339355</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>390</v>
       </c>
       <c r="B9" s="1">
         <v>0.10233</v>
       </c>
+      <c r="C9" s="1">
+        <v>371</v>
+      </c>
       <c r="D9" s="1">
-        <v>371</v>
-      </c>
-      <c r="E9" s="1">
         <v>0.88063630022591222</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>400</v>
       </c>
       <c r="B10" s="1">
         <v>0.10451000000000001</v>
       </c>
+      <c r="C10" s="1">
+        <v>372</v>
+      </c>
       <c r="D10" s="1">
-        <v>372</v>
-      </c>
-      <c r="E10" s="1">
         <v>0.88121186162135812</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>410</v>
       </c>
       <c r="B11" s="1">
         <v>0.10674</v>
       </c>
+      <c r="C11" s="1">
+        <v>373</v>
+      </c>
       <c r="D11" s="1">
-        <v>373</v>
-      </c>
-      <c r="E11" s="1">
         <v>0.88639677249361826</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>420</v>
       </c>
       <c r="B12" s="1">
         <v>0.10882</v>
       </c>
+      <c r="C12" s="1">
+        <v>374</v>
+      </c>
       <c r="D12" s="1">
-        <v>374</v>
-      </c>
-      <c r="E12" s="1">
         <v>0.89962338157440136</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>430</v>
       </c>
       <c r="B13" s="1">
         <v>0.11122</v>
       </c>
+      <c r="C13" s="1">
+        <v>375</v>
+      </c>
       <c r="D13" s="1">
-        <v>375</v>
-      </c>
-      <c r="E13" s="1">
         <v>0.89073237089156487</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>440</v>
       </c>
       <c r="B14" s="1">
         <v>0.11328000000000001</v>
       </c>
+      <c r="C14" s="1">
+        <v>376</v>
+      </c>
       <c r="D14" s="1">
-        <v>376</v>
-      </c>
-      <c r="E14" s="1">
         <v>0.89673665116468126</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>450</v>
       </c>
       <c r="B15" s="1">
         <v>0.11482000000000001</v>
       </c>
+      <c r="C15" s="1">
+        <v>377</v>
+      </c>
       <c r="D15" s="1">
-        <v>377</v>
-      </c>
-      <c r="E15" s="1">
         <v>0.91056876471436865</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>460</v>
       </c>
       <c r="B16" s="1">
         <v>0.11583</v>
       </c>
+      <c r="C16" s="1">
+        <v>378</v>
+      </c>
       <c r="D16" s="1">
-        <v>378</v>
-      </c>
-      <c r="E16" s="1">
         <v>0.89740471881024886</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>470</v>
       </c>
       <c r="B17" s="1">
         <v>0.11670999999999999</v>
       </c>
+      <c r="C17" s="1">
+        <v>379</v>
+      </c>
       <c r="D17" s="1">
-        <v>379</v>
-      </c>
-      <c r="E17" s="1">
         <v>0.90103328390743209</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>480</v>
       </c>
       <c r="B18" s="1">
         <v>0.11761000000000001</v>
       </c>
+      <c r="C18" s="1">
+        <v>380</v>
+      </c>
       <c r="D18" s="1">
-        <v>380</v>
-      </c>
-      <c r="E18" s="1">
         <v>0.90803589797740558</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>490</v>
       </c>
       <c r="B19" s="1">
         <v>0.11864</v>
       </c>
+      <c r="C19" s="1">
+        <v>381</v>
+      </c>
       <c r="D19" s="1">
-        <v>381</v>
-      </c>
-      <c r="E19" s="1">
         <v>0.90780458277747877</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>500</v>
       </c>
       <c r="B20" s="1">
         <v>0.11988</v>
       </c>
+      <c r="C20" s="1">
+        <v>382</v>
+      </c>
       <c r="D20" s="1">
-        <v>382</v>
-      </c>
-      <c r="E20" s="1">
         <v>0.90826285061033774</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>510</v>
       </c>
       <c r="B21" s="1">
         <v>0.12112000000000001</v>
       </c>
+      <c r="C21" s="1">
+        <v>383</v>
+      </c>
       <c r="D21" s="1">
-        <v>383</v>
-      </c>
-      <c r="E21" s="1">
         <v>0.90885001246801833</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>520</v>
       </c>
       <c r="B22" s="1">
         <v>0.12259</v>
       </c>
+      <c r="C22" s="1">
+        <v>384</v>
+      </c>
       <c r="D22" s="1">
-        <v>384</v>
-      </c>
-      <c r="E22" s="1">
         <v>0.90581178200451085</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>530</v>
       </c>
       <c r="B23" s="1">
         <v>0.12469</v>
       </c>
+      <c r="C23" s="1">
+        <v>385</v>
+      </c>
       <c r="D23" s="1">
-        <v>385</v>
-      </c>
-      <c r="E23" s="1">
         <v>0.89787409135909424</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>540</v>
       </c>
       <c r="B24" s="1">
         <v>0.12640000000000001</v>
       </c>
+      <c r="C24" s="1">
+        <v>386</v>
+      </c>
       <c r="D24" s="1">
-        <v>386</v>
-      </c>
-      <c r="E24" s="1">
         <v>0.89852193255768964</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>550</v>
       </c>
       <c r="B25" s="1">
         <v>0.12803999999999999</v>
       </c>
+      <c r="C25" s="1">
+        <v>387</v>
+      </c>
       <c r="D25" s="1">
-        <v>387</v>
-      </c>
-      <c r="E25" s="1">
         <v>0.89936152840551675</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>560</v>
       </c>
       <c r="B26" s="1">
         <v>0.12928000000000001</v>
       </c>
+      <c r="C26" s="1">
+        <v>388</v>
+      </c>
       <c r="D26" s="1">
-        <v>388</v>
-      </c>
-      <c r="E26" s="1">
         <v>0.90037245415710476</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>570</v>
       </c>
       <c r="B27" s="1">
         <v>0.13028000000000001</v>
       </c>
+      <c r="C27" s="1">
+        <v>389</v>
+      </c>
       <c r="D27" s="1">
-        <v>389</v>
-      </c>
-      <c r="E27" s="1">
         <v>0.90735771710835189</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>580</v>
       </c>
       <c r="B28" s="1">
         <v>0.13111</v>
       </c>
+      <c r="C28" s="1">
+        <v>390</v>
+      </c>
       <c r="D28" s="1">
-        <v>390</v>
-      </c>
-      <c r="E28" s="1">
         <v>0.91056073362512935</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>590</v>
       </c>
       <c r="B29" s="1">
         <v>0.13178999999999999</v>
       </c>
+      <c r="C29" s="1">
+        <v>391</v>
+      </c>
       <c r="D29" s="1">
-        <v>391</v>
-      </c>
-      <c r="E29" s="1">
         <v>0.9086570680277879</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>600</v>
       </c>
       <c r="B30" s="1">
         <v>0.13261000000000001</v>
       </c>
+      <c r="C30" s="1">
+        <v>392</v>
+      </c>
       <c r="D30" s="1">
-        <v>392</v>
-      </c>
-      <c r="E30" s="1">
         <v>0.90528629098024449</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>610</v>
       </c>
       <c r="B31" s="1">
         <v>0.13413</v>
       </c>
+      <c r="C31" s="1">
+        <v>393</v>
+      </c>
       <c r="D31" s="1">
-        <v>393</v>
-      </c>
-      <c r="E31" s="1">
         <v>0.91105082836719509</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>620</v>
       </c>
       <c r="B32" s="1">
         <v>0.13575999999999999</v>
       </c>
+      <c r="C32" s="1">
+        <v>394</v>
+      </c>
       <c r="D32" s="1">
-        <v>394</v>
-      </c>
-      <c r="E32" s="1">
         <v>0.91361958713260838</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>630</v>
       </c>
       <c r="B33" s="1">
         <v>0.13689000000000001</v>
       </c>
+      <c r="C33" s="1">
+        <v>395</v>
+      </c>
       <c r="D33" s="1">
-        <v>395</v>
-      </c>
-      <c r="E33" s="1">
         <v>0.91304452148341209</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>640</v>
       </c>
       <c r="B34" s="1">
         <v>0.13791</v>
       </c>
+      <c r="C34" s="1">
+        <v>396</v>
+      </c>
       <c r="D34" s="1">
-        <v>396</v>
-      </c>
-      <c r="E34" s="1">
         <v>0.91279535941850964</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>650</v>
       </c>
       <c r="B35" s="1">
         <v>0.13835</v>
       </c>
+      <c r="C35" s="1">
+        <v>397</v>
+      </c>
       <c r="D35" s="1">
-        <v>397</v>
-      </c>
-      <c r="E35" s="1">
         <v>0.91254758544310577</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>660</v>
       </c>
       <c r="B36" s="1">
         <v>0.13833000000000001</v>
       </c>
+      <c r="C36" s="1">
+        <v>398</v>
+      </c>
       <c r="D36" s="1">
-        <v>398</v>
-      </c>
-      <c r="E36" s="1">
         <v>0.91307267987037244</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>670</v>
       </c>
       <c r="B37" s="1">
         <v>0.13816000000000001</v>
       </c>
+      <c r="C37" s="1">
+        <v>399</v>
+      </c>
       <c r="D37" s="1">
-        <v>399</v>
-      </c>
-      <c r="E37" s="1">
         <v>0.91237417340509808</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>680</v>
       </c>
       <c r="B38" s="1">
         <v>0.13807</v>
       </c>
+      <c r="C38" s="1">
+        <v>400</v>
+      </c>
       <c r="D38" s="1">
-        <v>400</v>
-      </c>
-      <c r="E38" s="1">
         <v>0.90714761984789494</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>690</v>
       </c>
       <c r="B39" s="1">
         <v>0.13830000000000001</v>
       </c>
+      <c r="C39" s="1">
+        <v>401</v>
+      </c>
       <c r="D39" s="1">
-        <v>401</v>
-      </c>
-      <c r="E39" s="1">
         <v>0.90903066240126607</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>700</v>
       </c>
       <c r="B40" s="1">
         <v>0.13855999999999999</v>
       </c>
+      <c r="C40" s="1">
+        <v>402</v>
+      </c>
       <c r="D40" s="1">
-        <v>402</v>
-      </c>
-      <c r="E40" s="1">
         <v>0.91314634776301939</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>710</v>
       </c>
       <c r="B41" s="1">
         <v>0.13869000000000001</v>
       </c>
+      <c r="C41" s="1">
+        <v>403</v>
+      </c>
       <c r="D41" s="1">
-        <v>403</v>
-      </c>
-      <c r="E41" s="1">
         <v>0.91441773859399489</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>720</v>
       </c>
       <c r="B42" s="1">
         <v>0.13875999999999999</v>
       </c>
+      <c r="C42" s="1">
+        <v>404</v>
+      </c>
       <c r="D42" s="1">
-        <v>404</v>
-      </c>
-      <c r="E42" s="1">
         <v>0.91169133252130163</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>730</v>
       </c>
       <c r="B43" s="1">
         <v>0.13885</v>
       </c>
+      <c r="C43" s="1">
+        <v>405</v>
+      </c>
       <c r="D43" s="1">
-        <v>405</v>
-      </c>
-      <c r="E43" s="1">
         <v>0.91679960102341929</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>740</v>
       </c>
       <c r="B44" s="1">
         <v>0.13913</v>
       </c>
+      <c r="C44" s="1">
+        <v>406</v>
+      </c>
       <c r="D44" s="1">
-        <v>406</v>
-      </c>
-      <c r="E44" s="1">
         <v>0.92214691836695306</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>750</v>
       </c>
       <c r="B45" s="1">
         <v>0.13933000000000001</v>
       </c>
+      <c r="C45" s="1">
+        <v>407</v>
+      </c>
       <c r="D45" s="1">
-        <v>407</v>
-      </c>
-      <c r="E45" s="1">
         <v>0.91804382495993198</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>760</v>
       </c>
       <c r="B46" s="1">
         <v>0.13997999999999999</v>
       </c>
+      <c r="C46" s="1">
+        <v>408</v>
+      </c>
       <c r="D46" s="1">
-        <v>408</v>
-      </c>
-      <c r="E46" s="1">
         <v>0.92134856860706682</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>770</v>
       </c>
       <c r="B47" s="1">
         <v>0.13983999999999999</v>
       </c>
+      <c r="C47" s="1">
+        <v>409</v>
+      </c>
       <c r="D47" s="1">
-        <v>409</v>
-      </c>
-      <c r="E47" s="1">
         <v>0.92345806804712205</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>780</v>
       </c>
       <c r="B48" s="1">
         <v>0.13999</v>
       </c>
+      <c r="C48" s="1">
+        <v>410</v>
+      </c>
       <c r="D48" s="1">
-        <v>410</v>
-      </c>
-      <c r="E48" s="1">
         <v>0.92169816886207923</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>790</v>
       </c>
       <c r="B49" s="1">
         <v>0.14005999999999999</v>
       </c>
+      <c r="C49" s="1">
+        <v>411</v>
+      </c>
       <c r="D49" s="1">
-        <v>411</v>
-      </c>
-      <c r="E49" s="1">
         <v>0.92015272950448657</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>800</v>
       </c>
       <c r="B50" s="1">
         <v>0.14019999999999999</v>
       </c>
+      <c r="C50" s="1">
+        <v>412</v>
+      </c>
       <c r="D50" s="1">
-        <v>412</v>
-      </c>
-      <c r="E50" s="1">
         <v>0.92476049259330373</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>810</v>
       </c>
       <c r="B51" s="1">
         <v>0.14021</v>
       </c>
+      <c r="C51" s="1">
+        <v>413</v>
+      </c>
       <c r="D51" s="1">
-        <v>413</v>
-      </c>
-      <c r="E51" s="1">
         <v>0.92708544335330789</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>820</v>
       </c>
       <c r="B52" s="1">
         <v>0.14036999999999999</v>
       </c>
+      <c r="C52" s="1">
+        <v>414</v>
+      </c>
       <c r="D52" s="1">
-        <v>414</v>
-      </c>
-      <c r="E52" s="1">
         <v>0.92326036444289772</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>830</v>
       </c>
       <c r="B53" s="1">
         <v>0.13991000000000001</v>
       </c>
+      <c r="C53" s="1">
+        <v>415</v>
+      </c>
       <c r="D53" s="1">
-        <v>415</v>
-      </c>
-      <c r="E53" s="1">
         <v>0.92615234976286009</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>840</v>
       </c>
       <c r="B54" s="1">
         <v>0.13986000000000001</v>
       </c>
+      <c r="C54" s="1">
+        <v>416</v>
+      </c>
       <c r="D54" s="1">
-        <v>416</v>
-      </c>
-      <c r="E54" s="1">
         <v>0.92721334588562887</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>850</v>
       </c>
       <c r="B55" s="1">
         <v>0.14008000000000001</v>
       </c>
+      <c r="C55" s="1">
+        <v>417</v>
+      </c>
       <c r="D55" s="1">
-        <v>417</v>
-      </c>
-      <c r="E55" s="1">
         <v>0.92604070770751634</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>860</v>
       </c>
       <c r="B56" s="1">
         <v>0.13968</v>
       </c>
+      <c r="C56" s="1">
+        <v>418</v>
+      </c>
       <c r="D56" s="1">
-        <v>418</v>
-      </c>
-      <c r="E56" s="1">
         <v>0.92533367440675318</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>870</v>
       </c>
       <c r="B57" s="1">
         <v>0.14044999999999999</v>
       </c>
+      <c r="C57" s="1">
+        <v>419</v>
+      </c>
       <c r="D57" s="1">
-        <v>419</v>
-      </c>
-      <c r="E57" s="1">
         <v>0.92479896250225002</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>880</v>
       </c>
       <c r="B58" s="1">
         <v>0.14069999999999999</v>
       </c>
+      <c r="C58" s="1">
+        <v>420</v>
+      </c>
       <c r="D58" s="1">
-        <v>420</v>
-      </c>
-      <c r="E58" s="1">
         <v>0.9257771690013834</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>890</v>
       </c>
       <c r="B59" s="1">
         <v>0.14096</v>
       </c>
+      <c r="C59" s="1">
+        <v>421</v>
+      </c>
       <c r="D59" s="1">
-        <v>421</v>
-      </c>
-      <c r="E59" s="1">
         <v>0.92806602943443783</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>900</v>
       </c>
       <c r="B60" s="1">
         <v>0.14155999999999999</v>
       </c>
+      <c r="C60" s="1">
+        <v>422</v>
+      </c>
       <c r="D60" s="1">
-        <v>422</v>
-      </c>
-      <c r="E60" s="1">
         <v>0.92969356437091533</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>910</v>
       </c>
       <c r="B61" s="1">
         <v>0.14144999999999999</v>
       </c>
+      <c r="C61" s="1">
+        <v>423</v>
+      </c>
       <c r="D61" s="1">
-        <v>423</v>
-      </c>
-      <c r="E61" s="1">
         <v>0.93021846049968204</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>920</v>
       </c>
       <c r="B62" s="1">
         <v>0.14146</v>
       </c>
+      <c r="C62" s="1">
+        <v>424</v>
+      </c>
       <c r="D62" s="1">
-        <v>424</v>
-      </c>
-      <c r="E62" s="1">
         <v>0.93078440441789279</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>930</v>
       </c>
       <c r="B63" s="1">
         <v>0.14174</v>
       </c>
+      <c r="C63" s="1">
+        <v>425</v>
+      </c>
       <c r="D63" s="1">
-        <v>425</v>
-      </c>
-      <c r="E63" s="1">
         <v>0.93208930769532061</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>940</v>
       </c>
       <c r="B64" s="1">
         <v>0.14235</v>
       </c>
+      <c r="C64" s="1">
+        <v>426</v>
+      </c>
       <c r="D64" s="1">
-        <v>426</v>
-      </c>
-      <c r="E64" s="1">
         <v>0.93208881194907112</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>950</v>
       </c>
       <c r="B65" s="1">
         <v>0.14305000000000001</v>
       </c>
+      <c r="C65" s="1">
+        <v>427</v>
+      </c>
       <c r="D65" s="1">
-        <v>427</v>
-      </c>
-      <c r="E65" s="1">
         <v>0.93398633029292122</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>960</v>
       </c>
       <c r="B66" s="1">
         <v>0.14310999999999999</v>
       </c>
+      <c r="C66" s="1">
+        <v>428</v>
+      </c>
       <c r="D66" s="1">
-        <v>428</v>
-      </c>
-      <c r="E66" s="1">
         <v>0.93635341948411666</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>970</v>
       </c>
       <c r="B67" s="1">
         <v>0.1434</v>
       </c>
+      <c r="C67" s="1">
+        <v>429</v>
+      </c>
       <c r="D67" s="1">
-        <v>429</v>
-      </c>
-      <c r="E67" s="1">
         <v>0.93602364907907676</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>980</v>
       </c>
       <c r="B68" s="1">
         <v>0.14476</v>
       </c>
+      <c r="C68" s="1">
+        <v>430</v>
+      </c>
       <c r="D68" s="1">
-        <v>430</v>
-      </c>
-      <c r="E68" s="1">
         <v>0.93752159594598639</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>990</v>
       </c>
       <c r="B69" s="1">
         <v>0.14485999999999999</v>
       </c>
+      <c r="C69" s="1">
+        <v>431</v>
+      </c>
       <c r="D69" s="1">
-        <v>431</v>
-      </c>
-      <c r="E69" s="1">
         <v>0.93878356759822357</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1000</v>
       </c>
       <c r="B70" s="1">
         <v>0.14580000000000001</v>
       </c>
+      <c r="C70" s="1">
+        <v>432</v>
+      </c>
       <c r="D70" s="1">
-        <v>432</v>
-      </c>
-      <c r="E70" s="1">
         <v>0.93880696682119136</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1010</v>
       </c>
       <c r="B71" s="1">
         <v>0.14643999999999999</v>
       </c>
+      <c r="C71" s="1">
+        <v>433</v>
+      </c>
       <c r="D71" s="1">
-        <v>433</v>
-      </c>
-      <c r="E71" s="1">
         <v>0.93908418812380423</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1020</v>
       </c>
       <c r="B72" s="1">
         <v>0.14677000000000001</v>
       </c>
+      <c r="C72" s="1">
+        <v>434</v>
+      </c>
       <c r="D72" s="1">
-        <v>434</v>
-      </c>
-      <c r="E72" s="1">
         <v>0.94013774805283301</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1030</v>
       </c>
       <c r="B73" s="1">
         <v>0.14742</v>
       </c>
+      <c r="C73" s="1">
+        <v>435</v>
+      </c>
       <c r="D73" s="1">
-        <v>435</v>
-      </c>
-      <c r="E73" s="1">
         <v>0.94132942288691879</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1040</v>
       </c>
       <c r="B74" s="1">
         <v>0.14793000000000001</v>
       </c>
+      <c r="C74" s="1">
+        <v>436</v>
+      </c>
       <c r="D74" s="1">
-        <v>436</v>
-      </c>
-      <c r="E74" s="1">
         <v>0.94176260595956451</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1050</v>
       </c>
       <c r="B75" s="1">
         <v>0.14874999999999999</v>
       </c>
+      <c r="C75" s="1">
+        <v>437</v>
+      </c>
       <c r="D75" s="1">
-        <v>437</v>
-      </c>
-      <c r="E75" s="1">
         <v>0.94087016356156072</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1060</v>
       </c>
       <c r="B76" s="1">
         <v>0.14912</v>
       </c>
+      <c r="C76" s="1">
+        <v>438</v>
+      </c>
       <c r="D76" s="1">
-        <v>438</v>
-      </c>
-      <c r="E76" s="1">
         <v>0.94238784112919149</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1070</v>
       </c>
       <c r="B77" s="1">
         <v>0.14971999999999999</v>
       </c>
+      <c r="C77" s="1">
+        <v>439</v>
+      </c>
       <c r="D77" s="1">
-        <v>439</v>
-      </c>
-      <c r="E77" s="1">
         <v>0.94488134561395942</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1080</v>
       </c>
       <c r="B78" s="1">
         <v>0.15032000000000001</v>
       </c>
+      <c r="C78" s="1">
+        <v>440</v>
+      </c>
       <c r="D78" s="1">
-        <v>440</v>
-      </c>
-      <c r="E78" s="1">
         <v>0.943680251601137</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1090</v>
       </c>
       <c r="B79" s="1">
         <v>0.15081</v>
       </c>
+      <c r="C79" s="1">
+        <v>441</v>
+      </c>
       <c r="D79" s="1">
-        <v>441</v>
-      </c>
-      <c r="E79" s="1">
         <v>0.94524671059969978</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1100</v>
       </c>
       <c r="B80" s="1">
         <v>0.15149000000000001</v>
       </c>
+      <c r="C80" s="1">
+        <v>442</v>
+      </c>
       <c r="D80" s="1">
-        <v>442</v>
-      </c>
-      <c r="E80" s="1">
         <v>0.9472619191031364</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1110</v>
       </c>
       <c r="B81" s="1">
         <v>0.15082999999999999</v>
       </c>
+      <c r="C81" s="1">
+        <v>443</v>
+      </c>
       <c r="D81" s="1">
-        <v>443</v>
-      </c>
-      <c r="E81" s="1">
         <v>0.94758722779193205</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1120</v>
       </c>
       <c r="B82" s="1">
         <v>0.15198999999999999</v>
       </c>
+      <c r="C82" s="1">
+        <v>444</v>
+      </c>
       <c r="D82" s="1">
-        <v>444</v>
-      </c>
-      <c r="E82" s="1">
         <v>0.94692044908661321</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1130</v>
       </c>
       <c r="B83" s="1">
         <v>0.15243999999999999</v>
       </c>
+      <c r="C83" s="1">
+        <v>445</v>
+      </c>
       <c r="D83" s="1">
-        <v>445</v>
-      </c>
-      <c r="E83" s="1">
         <v>0.94726766975962806</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1140</v>
       </c>
       <c r="B84" s="1">
         <v>0.15321000000000001</v>
       </c>
+      <c r="C84" s="1">
+        <v>446</v>
+      </c>
       <c r="D84" s="1">
-        <v>446</v>
-      </c>
-      <c r="E84" s="1">
         <v>0.94798491543312602</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1150</v>
       </c>
       <c r="B85" s="1">
         <v>0.15293999999999999</v>
       </c>
+      <c r="C85" s="1">
+        <v>447</v>
+      </c>
       <c r="D85" s="1">
-        <v>447</v>
-      </c>
-      <c r="E85" s="1">
         <v>0.94799126098511699</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1160</v>
       </c>
       <c r="B86" s="1">
         <v>0.15365999999999999</v>
       </c>
+      <c r="C86" s="1">
+        <v>448</v>
+      </c>
       <c r="D86" s="1">
-        <v>448</v>
-      </c>
-      <c r="E86" s="1">
         <v>0.94995025186388282</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1170</v>
       </c>
       <c r="B87" s="1">
         <v>0.15398999999999999</v>
       </c>
+      <c r="C87" s="1">
+        <v>449</v>
+      </c>
       <c r="D87" s="1">
-        <v>449</v>
-      </c>
-      <c r="E87" s="1">
         <v>0.95128420587152018</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1180</v>
       </c>
       <c r="B88" s="1">
         <v>0.15454000000000001</v>
       </c>
+      <c r="C88" s="1">
+        <v>450</v>
+      </c>
       <c r="D88" s="1">
-        <v>450</v>
-      </c>
-      <c r="E88" s="1">
         <v>0.95103940637361195</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1190</v>
       </c>
       <c r="B89" s="1">
         <v>0.15486</v>
       </c>
+      <c r="C89" s="1">
+        <v>451</v>
+      </c>
       <c r="D89" s="1">
-        <v>451</v>
-      </c>
-      <c r="E89" s="1">
         <v>0.95031175002887702</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1200</v>
       </c>
       <c r="B90" s="1">
         <v>0.15569</v>
       </c>
+      <c r="C90" s="1">
+        <v>452</v>
+      </c>
       <c r="D90" s="1">
-        <v>452</v>
-      </c>
-      <c r="E90" s="1">
         <v>0.95100172965866381</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1210</v>
       </c>
       <c r="B91" s="1">
         <v>0.15603</v>
       </c>
+      <c r="C91" s="1">
+        <v>453</v>
+      </c>
       <c r="D91" s="1">
-        <v>453</v>
-      </c>
-      <c r="E91" s="1">
         <v>0.95216484950878966</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1220</v>
       </c>
       <c r="B92" s="1">
         <v>0.15690999999999999</v>
       </c>
+      <c r="C92" s="1">
+        <v>454</v>
+      </c>
       <c r="D92" s="1">
-        <v>454</v>
-      </c>
-      <c r="E92" s="1">
         <v>0.95260447728267617</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1230</v>
       </c>
       <c r="B93" s="1">
         <v>0.15695999999999999</v>
       </c>
+      <c r="C93" s="1">
+        <v>455</v>
+      </c>
       <c r="D93" s="1">
-        <v>455</v>
-      </c>
-      <c r="E93" s="1">
         <v>0.95226231322140376</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1240</v>
       </c>
       <c r="B94" s="1">
         <v>0.15668000000000001</v>
       </c>
+      <c r="C94" s="1">
+        <v>456</v>
+      </c>
       <c r="D94" s="1">
-        <v>456</v>
-      </c>
-      <c r="E94" s="1">
         <v>0.95290717994250351</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1250</v>
       </c>
       <c r="B95" s="1">
         <v>0.15731999999999999</v>
       </c>
+      <c r="C95" s="1">
+        <v>457</v>
+      </c>
       <c r="D95" s="1">
-        <v>457</v>
-      </c>
-      <c r="E95" s="1">
         <v>0.95393912533506287</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1260</v>
       </c>
       <c r="B96" s="1">
         <v>0.15767999999999999</v>
       </c>
+      <c r="C96" s="1">
+        <v>458</v>
+      </c>
       <c r="D96" s="1">
-        <v>458</v>
-      </c>
-      <c r="E96" s="1">
         <v>0.95376720053580255</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1270</v>
       </c>
       <c r="B97" s="1">
         <v>0.15787999999999999</v>
       </c>
+      <c r="C97" s="1">
+        <v>459</v>
+      </c>
       <c r="D97" s="1">
-        <v>459</v>
-      </c>
-      <c r="E97" s="1">
         <v>0.95367300874843497</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1280</v>
       </c>
       <c r="B98" s="1">
         <v>0.15801999999999999</v>
       </c>
+      <c r="C98" s="1">
+        <v>460</v>
+      </c>
       <c r="D98" s="1">
-        <v>460</v>
-      </c>
-      <c r="E98" s="1">
         <v>0.95385782295017596</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1290</v>
       </c>
       <c r="B99" s="1">
         <v>0.15834000000000001</v>
       </c>
+      <c r="C99" s="1">
+        <v>461</v>
+      </c>
       <c r="D99" s="1">
-        <v>461</v>
-      </c>
-      <c r="E99" s="1">
         <v>0.95439947530216995</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1300</v>
       </c>
       <c r="B100" s="1">
         <v>0.15912000000000001</v>
       </c>
+      <c r="C100" s="1">
+        <v>462</v>
+      </c>
       <c r="D100" s="1">
-        <v>462</v>
-      </c>
-      <c r="E100" s="1">
         <v>0.95538154862204827</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1310</v>
       </c>
       <c r="B101" s="1">
         <v>0.1598</v>
       </c>
+      <c r="C101" s="1">
+        <v>463</v>
+      </c>
       <c r="D101" s="1">
-        <v>463</v>
-      </c>
-      <c r="E101" s="1">
         <v>0.95497067413062253</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1320</v>
       </c>
       <c r="B102" s="1">
         <v>0.15959000000000001</v>
       </c>
+      <c r="C102" s="1">
+        <v>464</v>
+      </c>
       <c r="D102" s="1">
-        <v>464</v>
-      </c>
-      <c r="E102" s="1">
         <v>0.95437488628820455</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1330</v>
       </c>
       <c r="B103" s="1">
         <v>0.16064999999999999</v>
       </c>
+      <c r="C103" s="1">
+        <v>465</v>
+      </c>
       <c r="D103" s="1">
-        <v>465</v>
-      </c>
-      <c r="E103" s="1">
         <v>0.95505187736625952</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1340</v>
       </c>
       <c r="B104" s="1">
         <v>0.16023999999999999</v>
       </c>
+      <c r="C104" s="1">
+        <v>466</v>
+      </c>
       <c r="D104" s="1">
-        <v>466</v>
-      </c>
-      <c r="E104" s="1">
         <v>0.95574344338404338</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1350</v>
       </c>
       <c r="B105" s="1">
         <v>0.16053000000000001</v>
       </c>
+      <c r="C105" s="1">
+        <v>467</v>
+      </c>
       <c r="D105" s="1">
-        <v>467</v>
-      </c>
-      <c r="E105" s="1">
         <v>0.95591675627280104</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1360</v>
       </c>
       <c r="B106" s="1">
         <v>0.16117999999999999</v>
       </c>
+      <c r="C106" s="1">
+        <v>468</v>
+      </c>
       <c r="D106" s="1">
-        <v>468</v>
-      </c>
-      <c r="E106" s="1">
         <v>0.95570884029584191</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1370</v>
       </c>
       <c r="B107" s="1">
         <v>0.16153999999999999</v>
       </c>
+      <c r="C107" s="1">
+        <v>469</v>
+      </c>
       <c r="D107" s="1">
-        <v>469</v>
-      </c>
-      <c r="E107" s="1">
         <v>0.95581036912769957</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1380</v>
       </c>
       <c r="B108" s="1">
         <v>0.16178000000000001</v>
       </c>
+      <c r="C108" s="1">
+        <v>470</v>
+      </c>
       <c r="D108" s="1">
-        <v>470</v>
-      </c>
-      <c r="E108" s="1">
         <v>0.95690963686091468</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1390</v>
       </c>
       <c r="B109" s="1">
         <v>0.16195999999999999</v>
       </c>
+      <c r="C109" s="1">
+        <v>471</v>
+      </c>
       <c r="D109" s="1">
-        <v>471</v>
-      </c>
-      <c r="E109" s="1">
         <v>0.9579761853416755</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1400</v>
       </c>
       <c r="B110" s="1">
         <v>0.16188</v>
       </c>
+      <c r="C110" s="1">
+        <v>472</v>
+      </c>
       <c r="D110" s="1">
-        <v>472</v>
-      </c>
-      <c r="E110" s="1">
         <v>0.95827283989726131</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1410</v>
       </c>
       <c r="B111" s="1">
         <v>0.1618</v>
       </c>
+      <c r="C111" s="1">
+        <v>473</v>
+      </c>
       <c r="D111" s="1">
-        <v>473</v>
-      </c>
-      <c r="E111" s="1">
         <v>0.95815951230467067</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1420</v>
       </c>
       <c r="B112" s="1">
         <v>0.16189000000000001</v>
       </c>
+      <c r="C112" s="1">
+        <v>474</v>
+      </c>
       <c r="D112" s="1">
-        <v>474</v>
-      </c>
-      <c r="E112" s="1">
         <v>0.95801009438512874</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1430</v>
       </c>
       <c r="B113" s="1">
         <v>0.16200000000000001</v>
       </c>
+      <c r="C113" s="1">
+        <v>475</v>
+      </c>
       <c r="D113" s="1">
-        <v>475</v>
-      </c>
-      <c r="E113" s="1">
         <v>0.95859368686981405</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1440</v>
       </c>
       <c r="B114" s="1">
         <v>0.16245000000000001</v>
       </c>
+      <c r="C114" s="1">
+        <v>476</v>
+      </c>
       <c r="D114" s="1">
-        <v>476</v>
-      </c>
-      <c r="E114" s="1">
         <v>0.96025314786474691</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1450</v>
       </c>
       <c r="B115" s="1">
         <v>0.16228999999999999</v>
       </c>
+      <c r="C115" s="1">
+        <v>477</v>
+      </c>
       <c r="D115" s="1">
-        <v>477</v>
-      </c>
-      <c r="E115" s="1">
         <v>0.96030391228067569</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1460</v>
       </c>
       <c r="B116" s="1">
         <v>0.16167000000000001</v>
       </c>
+      <c r="C116" s="1">
+        <v>478</v>
+      </c>
       <c r="D116" s="1">
-        <v>478</v>
-      </c>
-      <c r="E116" s="1">
         <v>0.9600645659915108</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1470</v>
       </c>
       <c r="B117" s="1">
         <v>0.16266</v>
       </c>
+      <c r="C117" s="1">
+        <v>479</v>
+      </c>
       <c r="D117" s="1">
-        <v>479</v>
-      </c>
-      <c r="E117" s="1">
         <v>0.96037629123307511</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1480</v>
       </c>
       <c r="B118" s="1">
         <v>0.16239999999999999</v>
       </c>
+      <c r="C118" s="1">
+        <v>480</v>
+      </c>
       <c r="D118" s="1">
-        <v>480</v>
-      </c>
-      <c r="E118" s="1">
         <v>0.96123452713987723</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1490</v>
       </c>
       <c r="B119" s="1">
         <v>0.16358</v>
       </c>
+      <c r="C119" s="1">
+        <v>481</v>
+      </c>
       <c r="D119" s="1">
-        <v>481</v>
-      </c>
-      <c r="E119" s="1">
         <v>0.96197447799159352</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1500</v>
       </c>
       <c r="B120" s="1">
         <v>0.16267000000000001</v>
       </c>
+      <c r="C120" s="1">
+        <v>482</v>
+      </c>
       <c r="D120" s="1">
-        <v>482</v>
-      </c>
-      <c r="E120" s="1">
         <v>0.96265811206938912</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1510</v>
       </c>
       <c r="B121" s="1">
         <v>0.16300000000000001</v>
       </c>
+      <c r="C121" s="1">
+        <v>483</v>
+      </c>
       <c r="D121" s="1">
-        <v>483</v>
-      </c>
-      <c r="E121" s="1">
         <v>0.96337823307113291</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1520</v>
       </c>
       <c r="B122" s="1">
         <v>0.16295000000000001</v>
       </c>
+      <c r="C122" s="1">
+        <v>484</v>
+      </c>
       <c r="D122" s="1">
-        <v>484</v>
-      </c>
-      <c r="E122" s="1">
         <v>0.96382549533725936</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1530</v>
       </c>
       <c r="B123" s="1">
         <v>0.16314000000000001</v>
       </c>
+      <c r="C123" s="1">
+        <v>485</v>
+      </c>
       <c r="D123" s="1">
-        <v>485</v>
-      </c>
-      <c r="E123" s="1">
         <v>0.96334898404242486</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1540</v>
       </c>
       <c r="B124" s="1">
         <v>0.16336000000000001</v>
       </c>
+      <c r="C124" s="1">
+        <v>486</v>
+      </c>
       <c r="D124" s="1">
-        <v>486</v>
-      </c>
-      <c r="E124" s="1">
         <v>0.96276648219948724</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1550</v>
       </c>
       <c r="B125" s="1">
         <v>0.16392000000000001</v>
       </c>
+      <c r="C125" s="1">
+        <v>487</v>
+      </c>
       <c r="D125" s="1">
-        <v>487</v>
-      </c>
-      <c r="E125" s="1">
         <v>0.96354708424364777</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1560</v>
       </c>
       <c r="B126" s="1">
         <v>0.1638</v>
       </c>
+      <c r="C126" s="1">
+        <v>488</v>
+      </c>
       <c r="D126" s="1">
-        <v>488</v>
-      </c>
-      <c r="E126" s="1">
         <v>0.9652181457008151</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1570</v>
       </c>
       <c r="B127" s="1">
         <v>0.16425999999999999</v>
       </c>
+      <c r="C127" s="1">
+        <v>489</v>
+      </c>
       <c r="D127" s="1">
-        <v>489</v>
-      </c>
-      <c r="E127" s="1">
         <v>0.96607023435412442</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1580</v>
       </c>
       <c r="B128" s="1">
         <v>0.16450000000000001</v>
       </c>
+      <c r="C128" s="1">
+        <v>490</v>
+      </c>
       <c r="D128" s="1">
-        <v>490</v>
-      </c>
-      <c r="E128" s="1">
         <v>0.96587510863039761</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1590</v>
       </c>
       <c r="B129" s="1">
         <v>0.16375000000000001</v>
       </c>
+      <c r="C129" s="1">
+        <v>491</v>
+      </c>
       <c r="D129" s="1">
-        <v>491</v>
-      </c>
-      <c r="E129" s="1">
         <v>0.96713549389463782</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1600</v>
       </c>
       <c r="B130" s="1">
         <v>0.16431000000000001</v>
       </c>
+      <c r="C130" s="1">
+        <v>492</v>
+      </c>
       <c r="D130" s="1">
-        <v>492</v>
-      </c>
-      <c r="E130" s="1">
         <v>0.96752604278984267</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1610</v>
       </c>
       <c r="B131" s="1">
         <v>0.16447000000000001</v>
       </c>
+      <c r="C131" s="1">
+        <v>493</v>
+      </c>
       <c r="D131" s="1">
-        <v>493</v>
-      </c>
-      <c r="E131" s="1">
         <v>0.96766257130690125</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1620</v>
       </c>
       <c r="B132" s="1">
         <v>0.16411999999999999</v>
       </c>
+      <c r="C132" s="1">
+        <v>494</v>
+      </c>
       <c r="D132" s="1">
-        <v>494</v>
-      </c>
-      <c r="E132" s="1">
         <v>0.968622236896311</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1630</v>
       </c>
       <c r="B133" s="1">
         <v>0.16453000000000001</v>
       </c>
+      <c r="C133" s="1">
+        <v>495</v>
+      </c>
       <c r="D133" s="1">
-        <v>495</v>
-      </c>
-      <c r="E133" s="1">
         <v>0.96875460114487622</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1640</v>
       </c>
       <c r="B134" s="1">
         <v>0.16449</v>
       </c>
+      <c r="C134" s="1">
+        <v>496</v>
+      </c>
       <c r="D134" s="1">
-        <v>496</v>
-      </c>
-      <c r="E134" s="1">
         <v>0.9694033346867208</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1650</v>
       </c>
       <c r="B135" s="1">
         <v>0.16467999999999999</v>
       </c>
+      <c r="C135" s="1">
+        <v>497</v>
+      </c>
       <c r="D135" s="1">
-        <v>497</v>
-      </c>
-      <c r="E135" s="1">
         <v>0.97063714795199785</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1660</v>
       </c>
       <c r="B136" s="1">
         <v>0.16444</v>
       </c>
+      <c r="C136" s="1">
+        <v>498</v>
+      </c>
       <c r="D136" s="1">
-        <v>498</v>
-      </c>
-      <c r="E136" s="1">
         <v>0.9713129492390552</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1670</v>
       </c>
       <c r="B137" s="1">
         <v>0.16425999999999999</v>
       </c>
+      <c r="C137" s="1">
+        <v>499</v>
+      </c>
       <c r="D137" s="1">
-        <v>499</v>
-      </c>
-      <c r="E137" s="1">
         <v>0.97186749099353098</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1680</v>
       </c>
       <c r="B138" s="1">
         <v>0.16403999999999999</v>
       </c>
+      <c r="C138" s="1">
+        <v>500</v>
+      </c>
       <c r="D138" s="1">
-        <v>500</v>
-      </c>
-      <c r="E138" s="1">
         <v>0.97247071502968752</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1690</v>
       </c>
       <c r="B139" s="1">
         <v>0.16363</v>
       </c>
+      <c r="C139" s="1">
+        <v>501</v>
+      </c>
       <c r="D139" s="1">
-        <v>501</v>
-      </c>
-      <c r="E139" s="1">
         <v>0.97295654635401019</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1700</v>
       </c>
       <c r="B140" s="1">
         <v>0.16378000000000001</v>
       </c>
+      <c r="C140" s="1">
+        <v>502</v>
+      </c>
       <c r="D140" s="1">
-        <v>502</v>
-      </c>
-      <c r="E140" s="1">
         <v>0.97216949960860888</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1710</v>
       </c>
       <c r="B141" s="1">
         <v>0.16347</v>
       </c>
+      <c r="C141" s="1">
+        <v>503</v>
+      </c>
       <c r="D141" s="1">
-        <v>503</v>
-      </c>
-      <c r="E141" s="1">
         <v>0.972073721433243</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1720</v>
       </c>
       <c r="B142" s="1">
         <v>0.16356000000000001</v>
       </c>
+      <c r="C142" s="1">
+        <v>504</v>
+      </c>
       <c r="D142" s="1">
-        <v>504</v>
-      </c>
-      <c r="E142" s="1">
         <v>0.97292095177330984</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1730</v>
       </c>
       <c r="B143" s="1">
         <v>0.16383</v>
       </c>
+      <c r="C143" s="1">
+        <v>505</v>
+      </c>
       <c r="D143" s="1">
-        <v>505</v>
-      </c>
-      <c r="E143" s="1">
         <v>0.97408922738442794</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1740</v>
       </c>
       <c r="B144" s="1">
         <v>0.16372999999999999</v>
       </c>
+      <c r="C144" s="1">
+        <v>506</v>
+      </c>
       <c r="D144" s="1">
-        <v>506</v>
-      </c>
-      <c r="E144" s="1">
         <v>0.97538431488611943</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1750</v>
       </c>
       <c r="B145" s="1">
         <v>0.16384000000000001</v>
       </c>
+      <c r="C145" s="1">
+        <v>507</v>
+      </c>
       <c r="D145" s="1">
-        <v>507</v>
-      </c>
-      <c r="E145" s="1">
         <v>0.97621082303296602</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1760</v>
       </c>
       <c r="B146" s="1">
         <v>0.16339999999999999</v>
       </c>
+      <c r="C146" s="1">
+        <v>508</v>
+      </c>
       <c r="D146" s="1">
-        <v>508</v>
-      </c>
-      <c r="E146" s="1">
         <v>0.97637451844448708</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1770</v>
       </c>
       <c r="B147" s="1">
         <v>0.16356999999999999</v>
       </c>
+      <c r="C147" s="1">
+        <v>509</v>
+      </c>
       <c r="D147" s="1">
-        <v>509</v>
-      </c>
-      <c r="E147" s="1">
         <v>0.97627021343363363</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1780</v>
       </c>
       <c r="B148" s="1">
         <v>0.16342999999999999</v>
       </c>
+      <c r="C148" s="1">
+        <v>510</v>
+      </c>
       <c r="D148" s="1">
-        <v>510</v>
-      </c>
-      <c r="E148" s="1">
         <v>0.97713895916091986</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1790</v>
       </c>
       <c r="B149" s="1">
         <v>0.16352</v>
       </c>
+      <c r="C149" s="1">
+        <v>511</v>
+      </c>
       <c r="D149" s="1">
-        <v>511</v>
-      </c>
-      <c r="E149" s="1">
         <v>0.97806065058763303</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1800</v>
       </c>
       <c r="B150" s="1">
         <v>0.16364999999999999</v>
       </c>
+      <c r="C150" s="1">
+        <v>512</v>
+      </c>
       <c r="D150" s="1">
-        <v>512</v>
-      </c>
-      <c r="E150" s="1">
         <v>0.97812014013755044</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1810</v>
       </c>
       <c r="B151" s="1">
         <v>0.16336999999999999</v>
       </c>
+      <c r="C151" s="1">
+        <v>513</v>
+      </c>
       <c r="D151" s="1">
-        <v>513</v>
-      </c>
-      <c r="E151" s="1">
         <v>0.97910171771117938</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1820</v>
       </c>
       <c r="B152" s="1">
         <v>0.16328999999999999</v>
       </c>
+      <c r="C152" s="1">
+        <v>514</v>
+      </c>
       <c r="D152" s="1">
-        <v>514</v>
-      </c>
-      <c r="E152" s="1">
         <v>0.98007248801657421</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1830</v>
       </c>
       <c r="B153" s="1">
         <v>0.16320999999999999</v>
       </c>
+      <c r="C153" s="1">
+        <v>515</v>
+      </c>
       <c r="D153" s="1">
-        <v>515</v>
-      </c>
-      <c r="E153" s="1">
         <v>0.98057507556412238</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1840</v>
       </c>
       <c r="B154" s="1">
         <v>0.1633</v>
       </c>
+      <c r="C154" s="1">
+        <v>516</v>
+      </c>
       <c r="D154" s="1">
-        <v>516</v>
-      </c>
-      <c r="E154" s="1">
         <v>0.98062405529355423</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1850</v>
       </c>
       <c r="B155" s="1">
         <v>0.16333</v>
       </c>
+      <c r="C155" s="1">
+        <v>517</v>
+      </c>
       <c r="D155" s="1">
-        <v>517</v>
-      </c>
-      <c r="E155" s="1">
         <v>0.98041217334660047</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1860</v>
       </c>
       <c r="B156" s="1">
         <v>0.16347999999999999</v>
       </c>
+      <c r="C156" s="1">
+        <v>518</v>
+      </c>
       <c r="D156" s="1">
-        <v>518</v>
-      </c>
-      <c r="E156" s="1">
         <v>0.980790923481071</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1870</v>
       </c>
       <c r="B157" s="1">
         <v>0.16385</v>
       </c>
+      <c r="C157" s="1">
+        <v>519</v>
+      </c>
       <c r="D157" s="1">
-        <v>519</v>
-      </c>
-      <c r="E157" s="1">
         <v>0.98202315035835086</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1880</v>
       </c>
       <c r="B158" s="1">
         <v>0.16391</v>
       </c>
+      <c r="C158" s="1">
+        <v>520</v>
+      </c>
       <c r="D158" s="1">
-        <v>520</v>
-      </c>
-      <c r="E158" s="1">
         <v>0.98302564842370121</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1890</v>
       </c>
       <c r="B159" s="1">
         <v>0.16383</v>
       </c>
+      <c r="C159" s="1">
+        <v>521</v>
+      </c>
       <c r="D159" s="1">
-        <v>521</v>
-      </c>
-      <c r="E159" s="1">
         <v>0.9840451010107768</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1900</v>
       </c>
       <c r="B160" s="1">
         <v>0.16389999999999999</v>
       </c>
+      <c r="C160" s="1">
+        <v>522</v>
+      </c>
       <c r="D160" s="1">
-        <v>522</v>
-      </c>
-      <c r="E160" s="1">
         <v>0.98462195134647146</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1910</v>
       </c>
       <c r="B161" s="1">
         <v>0.16372</v>
       </c>
+      <c r="C161" s="1">
+        <v>523</v>
+      </c>
       <c r="D161" s="1">
-        <v>523</v>
-      </c>
-      <c r="E161" s="1">
         <v>0.98439965872828183</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1920</v>
       </c>
       <c r="B162" s="1">
         <v>0.16385</v>
       </c>
+      <c r="C162" s="1">
+        <v>524</v>
+      </c>
       <c r="D162" s="1">
-        <v>524</v>
-      </c>
-      <c r="E162" s="1">
         <v>0.98511938313302727</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1930</v>
       </c>
       <c r="B163" s="1">
         <v>0.16353000000000001</v>
       </c>
+      <c r="C163" s="1">
+        <v>525</v>
+      </c>
       <c r="D163" s="1">
-        <v>525</v>
-      </c>
-      <c r="E163" s="1">
         <v>0.98574094978040916</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1940</v>
       </c>
       <c r="B164" s="1">
         <v>0.16431000000000001</v>
       </c>
+      <c r="C164" s="1">
+        <v>526</v>
+      </c>
       <c r="D164" s="1">
-        <v>526</v>
-      </c>
-      <c r="E164" s="1">
         <v>0.98583058070228391</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1950</v>
       </c>
       <c r="B165" s="1">
         <v>0.16392000000000001</v>
       </c>
+      <c r="C165" s="1">
+        <v>527</v>
+      </c>
       <c r="D165" s="1">
-        <v>527</v>
-      </c>
-      <c r="E165" s="1">
         <v>0.98596324239859878</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1960</v>
       </c>
       <c r="B166" s="1">
         <v>0.16377</v>
       </c>
+      <c r="C166" s="1">
+        <v>528</v>
+      </c>
       <c r="D166" s="1">
-        <v>528</v>
-      </c>
-      <c r="E166" s="1">
         <v>0.98580708233006764</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1970</v>
       </c>
       <c r="B167" s="1">
         <v>0.16386000000000001</v>
       </c>
+      <c r="C167" s="1">
+        <v>529</v>
+      </c>
       <c r="D167" s="1">
-        <v>529</v>
-      </c>
-      <c r="E167" s="1">
         <v>0.9861902941807823</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1980</v>
       </c>
       <c r="B168" s="1">
         <v>0.16356000000000001</v>
       </c>
+      <c r="C168" s="1">
+        <v>530</v>
+      </c>
       <c r="D168" s="1">
-        <v>530</v>
-      </c>
-      <c r="E168" s="1">
         <v>0.98755032444113344</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1990</v>
       </c>
       <c r="B169" s="1">
         <v>0.16378999999999999</v>
       </c>
+      <c r="C169" s="1">
+        <v>531</v>
+      </c>
       <c r="D169" s="1">
-        <v>531</v>
-      </c>
-      <c r="E169" s="1">
         <v>0.9881984630874785</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>2000</v>
       </c>
       <c r="B170" s="1">
         <v>0.16428000000000001</v>
       </c>
+      <c r="C170" s="1">
+        <v>532</v>
+      </c>
       <c r="D170" s="1">
-        <v>532</v>
-      </c>
-      <c r="E170" s="1">
         <v>0.98873476137997895</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>2010</v>
       </c>
       <c r="B171" s="1">
         <v>0.16438</v>
       </c>
+      <c r="C171" s="1">
+        <v>533</v>
+      </c>
       <c r="D171" s="1">
-        <v>533</v>
-      </c>
-      <c r="E171" s="1">
         <v>0.98944367851648907</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2020</v>
       </c>
       <c r="B172" s="1">
         <v>0.16413</v>
       </c>
+      <c r="C172" s="1">
+        <v>534</v>
+      </c>
       <c r="D172" s="1">
-        <v>534</v>
-      </c>
-      <c r="E172" s="1">
         <v>0.99031212679602709</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>2030</v>
       </c>
       <c r="B173" s="1">
         <v>0.16416</v>
       </c>
+      <c r="C173" s="1">
+        <v>535</v>
+      </c>
       <c r="D173" s="1">
-        <v>535</v>
-      </c>
-      <c r="E173" s="1">
         <v>0.99072914854094529</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>2040</v>
       </c>
       <c r="B174" s="1">
         <v>0.16381999999999999</v>
       </c>
+      <c r="C174" s="1">
+        <v>536</v>
+      </c>
       <c r="D174" s="1">
-        <v>536</v>
-      </c>
-      <c r="E174" s="1">
         <v>0.99121210453702069</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2050</v>
       </c>
       <c r="B175" s="1">
         <v>0.16370999999999999</v>
       </c>
+      <c r="C175" s="1">
+        <v>537</v>
+      </c>
       <c r="D175" s="1">
-        <v>537</v>
-      </c>
-      <c r="E175" s="1">
         <v>0.99208184175680614</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>2060</v>
       </c>
       <c r="B176" s="1">
         <v>0.16370999999999999</v>
       </c>
+      <c r="C176" s="1">
+        <v>538</v>
+      </c>
       <c r="D176" s="1">
-        <v>538</v>
-      </c>
-      <c r="E176" s="1">
         <v>0.99302623836173753</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2070</v>
       </c>
       <c r="B177" s="1">
         <v>0.16345000000000001</v>
       </c>
+      <c r="C177" s="1">
+        <v>539</v>
+      </c>
       <c r="D177" s="1">
-        <v>539</v>
-      </c>
-      <c r="E177" s="1">
         <v>0.99338753822823322</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>2080</v>
       </c>
       <c r="B178" s="1">
         <v>0.16328999999999999</v>
       </c>
+      <c r="C178" s="1">
+        <v>540</v>
+      </c>
       <c r="D178" s="1">
-        <v>540</v>
-      </c>
-      <c r="E178" s="1">
         <v>0.9936321394276415</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>2090</v>
       </c>
       <c r="B179" s="1">
         <v>0.16294</v>
       </c>
+      <c r="C179" s="1">
+        <v>541</v>
+      </c>
       <c r="D179" s="1">
-        <v>541</v>
-      </c>
-      <c r="E179" s="1">
         <v>0.99442830790402981</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>2100</v>
       </c>
       <c r="B180" s="1">
         <v>0.16297</v>
       </c>
+      <c r="C180" s="1">
+        <v>542</v>
+      </c>
       <c r="D180" s="1">
-        <v>542</v>
-      </c>
-      <c r="E180" s="1">
         <v>0.99470612410214232</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2110</v>
       </c>
       <c r="B181" s="1">
         <v>0.16320999999999999</v>
       </c>
+      <c r="C181" s="1">
+        <v>543</v>
+      </c>
       <c r="D181" s="1">
-        <v>543</v>
-      </c>
-      <c r="E181" s="1">
         <v>0.9954272365963851</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>2120</v>
       </c>
       <c r="B182" s="1">
         <v>0.16350000000000001</v>
       </c>
+      <c r="C182" s="1">
+        <v>544</v>
+      </c>
       <c r="D182" s="1">
-        <v>544</v>
-      </c>
-      <c r="E182" s="1">
         <v>0.99651926643435995</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>2130</v>
       </c>
       <c r="B183" s="1">
         <v>0.1633</v>
       </c>
+      <c r="C183" s="1">
+        <v>545</v>
+      </c>
       <c r="D183" s="1">
-        <v>545</v>
-      </c>
-      <c r="E183" s="1">
         <v>0.99664855705617961</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2140</v>
       </c>
       <c r="B184" s="1">
         <v>0.16286</v>
       </c>
+      <c r="C184" s="1">
+        <v>546</v>
+      </c>
       <c r="D184" s="1">
-        <v>546</v>
-      </c>
-      <c r="E184" s="1">
         <v>0.99665232472767451</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>2150</v>
       </c>
       <c r="B185" s="1">
         <v>0.16353000000000001</v>
       </c>
+      <c r="C185" s="1">
+        <v>547</v>
+      </c>
       <c r="D185" s="1">
-        <v>547</v>
-      </c>
-      <c r="E185" s="1">
         <v>0.99707162690533935</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>2160</v>
       </c>
       <c r="B186" s="1">
         <v>0.16342999999999999</v>
       </c>
+      <c r="C186" s="1">
+        <v>548</v>
+      </c>
       <c r="D186" s="1">
-        <v>548</v>
-      </c>
-      <c r="E186" s="1">
         <v>0.99807650455268582</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>2170</v>
       </c>
       <c r="B187" s="1">
         <v>0.16367999999999999</v>
       </c>
+      <c r="C187" s="1">
+        <v>549</v>
+      </c>
       <c r="D187" s="1">
-        <v>549</v>
-      </c>
-      <c r="E187" s="1">
         <v>0.99898947084541145</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>2180</v>
       </c>
       <c r="B188" s="1">
         <v>0.16345000000000001</v>
       </c>
+      <c r="C188" s="1">
+        <v>550</v>
+      </c>
       <c r="D188" s="1">
-        <v>550</v>
-      </c>
-      <c r="E188" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2190</v>
       </c>
       <c r="B189" s="1">
         <v>0.16378000000000001</v>
       </c>
+      <c r="C189" s="1">
+        <v>551</v>
+      </c>
       <c r="D189" s="1">
-        <v>551</v>
-      </c>
-      <c r="E189" s="1">
         <v>1.0010266904823173</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2200</v>
       </c>
       <c r="B190" s="1">
         <v>0.16350000000000001</v>
       </c>
+      <c r="C190" s="1">
+        <v>552</v>
+      </c>
       <c r="D190" s="1">
-        <v>552</v>
-      </c>
-      <c r="E190" s="1">
         <v>1.0018180006454616</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>2210</v>
       </c>
       <c r="B191" s="1">
         <v>0.16339000000000001</v>
       </c>
+      <c r="C191" s="1">
+        <v>553</v>
+      </c>
       <c r="D191" s="1">
-        <v>553</v>
-      </c>
-      <c r="E191" s="1">
         <v>1.0021396408120122</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2220</v>
       </c>
       <c r="B192" s="1">
         <v>0.16397</v>
       </c>
+      <c r="C192" s="1">
+        <v>554</v>
+      </c>
       <c r="D192" s="1">
-        <v>554</v>
-      </c>
-      <c r="E192" s="1">
         <v>1.0024042701598928</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2230</v>
       </c>
       <c r="B193" s="1">
         <v>0.16372999999999999</v>
       </c>
+      <c r="C193" s="1">
+        <v>555</v>
+      </c>
       <c r="D193" s="1">
-        <v>555</v>
-      </c>
-      <c r="E193" s="1">
         <v>1.0029329339601549</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2240</v>
       </c>
       <c r="B194" s="1">
         <v>0.16378999999999999</v>
       </c>
+      <c r="C194" s="1">
+        <v>556</v>
+      </c>
       <c r="D194" s="1">
-        <v>556</v>
-      </c>
-      <c r="E194" s="1">
         <v>1.003718295168309</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>2250</v>
       </c>
       <c r="B195" s="1">
         <v>0.16403000000000001</v>
       </c>
+      <c r="C195" s="1">
+        <v>557</v>
+      </c>
       <c r="D195" s="1">
-        <v>557</v>
-      </c>
-      <c r="E195" s="1">
         <v>1.0041238156002428</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>2260</v>
       </c>
       <c r="B196" s="1">
         <v>0.16364999999999999</v>
       </c>
+      <c r="C196" s="1">
+        <v>558</v>
+      </c>
       <c r="D196" s="1">
-        <v>558</v>
-      </c>
-      <c r="E196" s="1">
         <v>1.0046403831920219</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2270</v>
       </c>
       <c r="B197" s="1">
         <v>0.16342999999999999</v>
       </c>
+      <c r="C197" s="1">
+        <v>559</v>
+      </c>
       <c r="D197" s="1">
-        <v>559</v>
-      </c>
-      <c r="E197" s="1">
         <v>1.0058527802193278</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>2280</v>
       </c>
       <c r="B198" s="1">
         <v>0.16350999999999999</v>
       </c>
+      <c r="C198" s="1">
+        <v>560</v>
+      </c>
       <c r="D198" s="1">
-        <v>560</v>
-      </c>
-      <c r="E198" s="1">
         <v>1.0065230291483918</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>2290</v>
       </c>
       <c r="B199" s="1">
         <v>0.16372999999999999</v>
       </c>
+      <c r="C199" s="1">
+        <v>561</v>
+      </c>
       <c r="D199" s="1">
-        <v>561</v>
-      </c>
-      <c r="E199" s="1">
         <v>1.0072126121811804</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>2300</v>
       </c>
       <c r="B200" s="1">
         <v>0.16324</v>
       </c>
+      <c r="C200" s="1">
+        <v>562</v>
+      </c>
       <c r="D200" s="1">
-        <v>562</v>
-      </c>
-      <c r="E200" s="1">
         <v>1.0080246445375465</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>2310</v>
       </c>
       <c r="B201" s="1">
         <v>0.16342999999999999</v>
       </c>
+      <c r="C201" s="1">
+        <v>563</v>
+      </c>
       <c r="D201" s="1">
-        <v>563</v>
-      </c>
-      <c r="E201" s="1">
         <v>1.0084376011632188</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>2320</v>
       </c>
       <c r="B202" s="1">
         <v>0.16325000000000001</v>
       </c>
+      <c r="C202" s="1">
+        <v>564</v>
+      </c>
       <c r="D202" s="1">
-        <v>564</v>
-      </c>
-      <c r="E202" s="1">
         <v>1.0090671988998401</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>2330</v>
       </c>
       <c r="B203" s="1">
         <v>0.16322</v>
       </c>
+      <c r="C203" s="1">
+        <v>565</v>
+      </c>
       <c r="D203" s="1">
-        <v>565</v>
-      </c>
-      <c r="E203" s="1">
         <v>1.01002666619075</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>2340</v>
       </c>
       <c r="B204" s="1">
         <v>0.16352</v>
       </c>
+      <c r="C204" s="1">
+        <v>566</v>
+      </c>
       <c r="D204" s="1">
-        <v>566</v>
-      </c>
-      <c r="E204" s="1">
         <v>1.0111549846541747</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>2350</v>
       </c>
       <c r="B205" s="1">
         <v>0.16361000000000001</v>
       </c>
+      <c r="C205" s="1">
+        <v>567</v>
+      </c>
       <c r="D205" s="1">
-        <v>567</v>
-      </c>
-      <c r="E205" s="1">
         <v>1.0119350909520854</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>2360</v>
       </c>
       <c r="B206" s="1">
         <v>0.16353999999999999</v>
       </c>
+      <c r="C206" s="1">
+        <v>568</v>
+      </c>
       <c r="D206" s="1">
-        <v>568</v>
-      </c>
-      <c r="E206" s="1">
         <v>1.0125341507197503</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>2370</v>
       </c>
       <c r="B207" s="1">
         <v>0.1633</v>
       </c>
+      <c r="C207" s="1">
+        <v>569</v>
+      </c>
       <c r="D207" s="1">
-        <v>569</v>
-      </c>
-      <c r="E207" s="1">
         <v>1.0132283937672801</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>2380</v>
       </c>
       <c r="B208" s="1">
         <v>0.16331999999999999</v>
       </c>
+      <c r="C208" s="1">
+        <v>570</v>
+      </c>
       <c r="D208" s="1">
-        <v>570</v>
-      </c>
-      <c r="E208" s="1">
         <v>1.0142730302638217</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>2390</v>
       </c>
       <c r="B209" s="1">
         <v>0.16309999999999999</v>
       </c>
+      <c r="C209" s="1">
+        <v>571</v>
+      </c>
       <c r="D209" s="1">
-        <v>571</v>
-      </c>
-      <c r="E209" s="1">
         <v>1.014805957481828</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>2400</v>
       </c>
       <c r="B210" s="1">
         <v>0.16311999999999999</v>
       </c>
+      <c r="C210" s="1">
+        <v>572</v>
+      </c>
       <c r="D210" s="1">
-        <v>572</v>
-      </c>
-      <c r="E210" s="1">
         <v>1.0152880211346542</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>2410</v>
       </c>
       <c r="B211" s="1">
         <v>0.16281999999999999</v>
       </c>
+      <c r="C211" s="1">
+        <v>573</v>
+      </c>
       <c r="D211" s="1">
-        <v>573</v>
-      </c>
-      <c r="E211" s="1">
         <v>1.0160623767760735</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>2420</v>
       </c>
       <c r="B212" s="1">
         <v>0.16286</v>
       </c>
+      <c r="C212" s="1">
+        <v>574</v>
+      </c>
       <c r="D212" s="1">
-        <v>574</v>
-      </c>
-      <c r="E212" s="1">
         <v>1.0169738558300507</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>2430</v>
       </c>
       <c r="B213" s="1">
         <v>0.16303000000000001</v>
       </c>
+      <c r="C213" s="1">
+        <v>575</v>
+      </c>
       <c r="D213" s="1">
-        <v>575</v>
-      </c>
-      <c r="E213" s="1">
         <v>1.0178426015573383</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>2440</v>
       </c>
       <c r="B214" s="1">
         <v>0.16334000000000001</v>
       </c>
+      <c r="C214" s="1">
+        <v>576</v>
+      </c>
       <c r="D214" s="1">
-        <v>576</v>
-      </c>
-      <c r="E214" s="1">
         <v>1.0188227910414684</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>2450</v>
       </c>
       <c r="B215" s="1">
         <v>0.16352</v>
       </c>
+      <c r="C215" s="1">
+        <v>577</v>
+      </c>
       <c r="D215" s="1">
-        <v>577</v>
-      </c>
-      <c r="E215" s="1">
         <v>1.0199812508768515</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2460</v>
       </c>
       <c r="B216" s="1">
         <v>0.16325000000000001</v>
       </c>
+      <c r="C216" s="1">
+        <v>578</v>
+      </c>
       <c r="D216" s="1">
-        <v>578</v>
-      </c>
-      <c r="E216" s="1">
         <v>1.02032619111712</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2470</v>
       </c>
       <c r="B217" s="1">
         <v>0.16341</v>
       </c>
+      <c r="C217" s="1">
+        <v>579</v>
+      </c>
       <c r="D217" s="1">
-        <v>579</v>
-      </c>
-      <c r="E217" s="1">
         <v>1.0208791464835973</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2480</v>
       </c>
       <c r="B218" s="1">
         <v>0.16342999999999999</v>
       </c>
+      <c r="C218" s="1">
+        <v>580</v>
+      </c>
       <c r="D218" s="1">
-        <v>580</v>
-      </c>
-      <c r="E218" s="1">
         <v>1.0217933025673218</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>2490</v>
       </c>
       <c r="B219" s="1">
         <v>0.16236999999999999</v>
       </c>
+      <c r="C219" s="1">
+        <v>581</v>
+      </c>
       <c r="D219" s="1">
-        <v>581</v>
-      </c>
-      <c r="E219" s="1">
         <v>1.0223385242923109</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>2500</v>
       </c>
       <c r="B220" s="1">
         <v>0.16258</v>
       </c>
+      <c r="C220" s="1">
+        <v>582</v>
+      </c>
       <c r="D220" s="1">
-        <v>582</v>
-      </c>
-      <c r="E220" s="1">
         <v>1.0231396502311914</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>2510</v>
       </c>
       <c r="B221" s="1">
         <v>0.16208</v>
       </c>
+      <c r="C221" s="1">
+        <v>583</v>
+      </c>
       <c r="D221" s="1">
-        <v>583</v>
-      </c>
-      <c r="E221" s="1">
         <v>1.0239708183927809</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>2520</v>
       </c>
       <c r="B222" s="1">
         <v>0.16197</v>
       </c>
+      <c r="C222" s="1">
+        <v>584</v>
+      </c>
       <c r="D222" s="1">
-        <v>584</v>
-      </c>
-      <c r="E222" s="1">
         <v>1.0246433477545926</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>2530</v>
       </c>
       <c r="B223" s="1">
         <v>0.16184999999999999</v>
       </c>
+      <c r="C223" s="1">
+        <v>585</v>
+      </c>
       <c r="D223" s="1">
-        <v>585</v>
-      </c>
-      <c r="E223" s="1">
         <v>1.0254628163046975</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>2540</v>
       </c>
       <c r="B224" s="1">
         <v>0.16159000000000001</v>
       </c>
+      <c r="C224" s="1">
+        <v>586</v>
+      </c>
       <c r="D224" s="1">
-        <v>586</v>
-      </c>
-      <c r="E224" s="1">
         <v>1.0263325535244829</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2550</v>
       </c>
       <c r="B225" s="1">
         <v>0.16042999999999999</v>
       </c>
+      <c r="C225" s="1">
+        <v>587</v>
+      </c>
       <c r="D225" s="1">
-        <v>587</v>
-      </c>
-      <c r="E225" s="1">
         <v>1.0271444867316004</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C226" s="1">
+        <v>588</v>
+      </c>
       <c r="D226" s="1">
-        <v>588</v>
-      </c>
-      <c r="E226" s="1">
         <v>1.0277978802881877</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C227" s="1">
+        <v>589</v>
+      </c>
       <c r="D227" s="1">
-        <v>589</v>
-      </c>
-      <c r="E227" s="1">
         <v>1.0286793171194564</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C228" s="1">
+        <v>590</v>
+      </c>
       <c r="D228" s="1">
-        <v>590</v>
-      </c>
-      <c r="E228" s="1">
         <v>1.0293623563017527</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C229" s="1">
+        <v>591</v>
+      </c>
       <c r="D229" s="1">
-        <v>591</v>
-      </c>
-      <c r="E229" s="1">
         <v>1.0297505256149613</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C230" s="1">
+        <v>592</v>
+      </c>
       <c r="D230" s="1">
-        <v>592</v>
-      </c>
-      <c r="E230" s="1">
         <v>1.0303911289183163</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C231" s="1">
+        <v>593</v>
+      </c>
       <c r="D231" s="1">
-        <v>593</v>
-      </c>
-      <c r="E231" s="1">
         <v>1.0309879082532334</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C232" s="1">
+        <v>594</v>
+      </c>
       <c r="D232" s="1">
-        <v>594</v>
-      </c>
-      <c r="E232" s="1">
         <v>1.0316933551659981</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C233" s="1">
+        <v>595</v>
+      </c>
       <c r="D233" s="1">
-        <v>595</v>
-      </c>
-      <c r="E233" s="1">
         <v>1.0326178227717071</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C234" s="1">
+        <v>596</v>
+      </c>
       <c r="D234" s="1">
-        <v>596</v>
-      </c>
-      <c r="E234" s="1">
         <v>1.0330521956353518</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C235" s="1">
+        <v>597</v>
+      </c>
       <c r="D235" s="1">
-        <v>597</v>
-      </c>
-      <c r="E235" s="1">
         <v>1.0335951369275931</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C236" s="1">
+        <v>598</v>
+      </c>
       <c r="D236" s="1">
-        <v>598</v>
-      </c>
-      <c r="E236" s="1">
         <v>1.0344334438351726</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C237" s="1">
+        <v>599</v>
+      </c>
       <c r="D237" s="1">
-        <v>599</v>
-      </c>
-      <c r="E237" s="1">
         <v>1.0353392713819078</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C238" s="1">
+        <v>600</v>
+      </c>
       <c r="D238" s="1">
-        <v>600</v>
-      </c>
-      <c r="E238" s="1">
         <v>1.0359350592243257</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C239" s="1">
+        <v>601</v>
+      </c>
       <c r="D239" s="1">
-        <v>601</v>
-      </c>
-      <c r="E239" s="1">
         <v>1.0363220387465355</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C240" s="1">
+        <v>602</v>
+      </c>
       <c r="D240" s="1">
-        <v>602</v>
-      </c>
-      <c r="E240" s="1">
         <v>1.0366311861076036</v>
       </c>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C241" s="1">
+        <v>603</v>
+      </c>
       <c r="D241" s="1">
-        <v>603</v>
-      </c>
-      <c r="E241" s="1">
         <v>1.0368003347278683</v>
       </c>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C242" s="1">
+        <v>604</v>
+      </c>
       <c r="D242" s="1">
-        <v>604</v>
-      </c>
-      <c r="E242" s="1">
         <v>1.0376232735017183</v>
       </c>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C243" s="1">
+        <v>605</v>
+      </c>
       <c r="D243" s="1">
-        <v>605</v>
-      </c>
-      <c r="E243" s="1">
         <v>1.0385131380192261</v>
       </c>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C244" s="1">
+        <v>606</v>
+      </c>
       <c r="D244" s="1">
-        <v>606</v>
-      </c>
-      <c r="E244" s="1">
         <v>1.038537231286943</v>
       </c>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C245" s="1">
+        <v>607</v>
+      </c>
       <c r="D245" s="1">
-        <v>607</v>
-      </c>
-      <c r="E245" s="1">
         <v>1.039293938361886</v>
       </c>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C246" s="1">
+        <v>608</v>
+      </c>
       <c r="D246" s="1">
-        <v>608</v>
-      </c>
-      <c r="E246" s="1">
         <v>1.0399049951887838</v>
       </c>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C247" s="1">
+        <v>609</v>
+      </c>
       <c r="D247" s="1">
-        <v>609</v>
-      </c>
-      <c r="E247" s="1">
         <v>1.0400736480627975</v>
       </c>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C248" s="1">
+        <v>610</v>
+      </c>
       <c r="D248" s="1">
-        <v>610</v>
-      </c>
-      <c r="E248" s="1">
         <v>1.0404317751532974</v>
       </c>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C249" s="1">
+        <v>611</v>
+      </c>
       <c r="D249" s="1">
-        <v>611</v>
-      </c>
-      <c r="E249" s="1">
         <v>1.0410541349946785</v>
       </c>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C250" s="1">
+        <v>612</v>
+      </c>
       <c r="D250" s="1">
-        <v>612</v>
-      </c>
-      <c r="E250" s="1">
         <v>1.0413238209543016</v>
       </c>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C251" s="1">
+        <v>613</v>
+      </c>
       <c r="D251" s="1">
-        <v>613</v>
-      </c>
-      <c r="E251" s="1">
         <v>1.0409490367898258</v>
       </c>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C252" s="1">
+        <v>614</v>
+      </c>
       <c r="D252" s="1">
-        <v>614</v>
-      </c>
-      <c r="E252" s="1">
         <v>1.0415235075435227</v>
       </c>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C253" s="1">
+        <v>615</v>
+      </c>
       <c r="D253" s="1">
-        <v>615</v>
-      </c>
-      <c r="E253" s="1">
         <v>1.0420179648525829</v>
       </c>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C254" s="1">
+        <v>616</v>
+      </c>
       <c r="D254" s="1">
-        <v>616</v>
-      </c>
-      <c r="E254" s="1">
         <v>1.0422495775002592</v>
       </c>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C255" s="1">
+        <v>617</v>
+      </c>
       <c r="D255" s="1">
-        <v>617</v>
-      </c>
-      <c r="E255" s="1">
         <v>1.0426092909787565</v>
       </c>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C256" s="1">
+        <v>618</v>
+      </c>
       <c r="D256" s="1">
-        <v>618</v>
-      </c>
-      <c r="E256" s="1">
         <v>1.043018678231435</v>
       </c>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C257" s="1">
+        <v>619</v>
+      </c>
       <c r="D257" s="1">
-        <v>619</v>
-      </c>
-      <c r="E257" s="1">
         <v>1.0435439709572014</v>
       </c>
     </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C258" s="1">
+        <v>620</v>
+      </c>
       <c r="D258" s="1">
-        <v>620</v>
-      </c>
-      <c r="E258" s="1">
         <v>1.0441331157998799</v>
       </c>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C259" s="1">
+        <v>621</v>
+      </c>
       <c r="D259" s="1">
-        <v>621</v>
-      </c>
-      <c r="E259" s="1">
         <v>1.0444977867408709</v>
       </c>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C260" s="1">
+        <v>622</v>
+      </c>
       <c r="D260" s="1">
-        <v>622</v>
-      </c>
-      <c r="E260" s="1">
         <v>1.0443977451477606</v>
       </c>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C261" s="1">
+        <v>623</v>
+      </c>
       <c r="D261" s="1">
-        <v>623</v>
-      </c>
-      <c r="E261" s="1">
         <v>1.0444224333109755</v>
       </c>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C262" s="1">
+        <v>624</v>
+      </c>
       <c r="D262" s="1">
-        <v>624</v>
-      </c>
-      <c r="E262" s="1">
         <v>1.0451647637446897</v>
       </c>
     </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C263" s="1">
+        <v>625</v>
+      </c>
       <c r="D263" s="1">
-        <v>625</v>
-      </c>
-      <c r="E263" s="1">
         <v>1.0457046314101852</v>
       </c>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C264" s="1">
+        <v>626</v>
+      </c>
       <c r="D264" s="1">
-        <v>626</v>
-      </c>
-      <c r="E264" s="1">
         <v>1.0459166125063888</v>
       </c>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C265" s="1">
+        <v>627</v>
+      </c>
       <c r="D265" s="1">
-        <v>627</v>
-      </c>
-      <c r="E265" s="1">
         <v>1.0459032273576585</v>
       </c>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C266" s="1">
+        <v>628</v>
+      </c>
       <c r="D266" s="1">
-        <v>628</v>
-      </c>
-      <c r="E266" s="1">
         <v>1.046020520920244</v>
       </c>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C267" s="1">
+        <v>629</v>
+      </c>
       <c r="D267" s="1">
-        <v>629</v>
-      </c>
-      <c r="E267" s="1">
         <v>1.046483647066347</v>
       </c>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C268" s="1">
+        <v>630</v>
+      </c>
       <c r="D268" s="1">
-        <v>630</v>
-      </c>
-      <c r="E268" s="1">
         <v>1.0468389979778512</v>
       </c>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C269" s="1">
+        <v>631</v>
+      </c>
       <c r="D269" s="1">
-        <v>631</v>
-      </c>
-      <c r="E269" s="1">
         <v>1.0468396920226004</v>
       </c>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C270" s="1">
+        <v>632</v>
+      </c>
       <c r="D270" s="1">
-        <v>632</v>
-      </c>
-      <c r="E270" s="1">
         <v>1.047360225584373</v>
       </c>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C271" s="1">
+        <v>633</v>
+      </c>
       <c r="D271" s="1">
-        <v>633</v>
-      </c>
-      <c r="E271" s="1">
         <v>1.0474102959555538</v>
       </c>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C272" s="1">
+        <v>634</v>
+      </c>
       <c r="D272" s="1">
-        <v>634</v>
-      </c>
-      <c r="E272" s="1">
         <v>1.0472368839175463</v>
       </c>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C273" s="1">
+        <v>635</v>
+      </c>
       <c r="D273" s="1">
-        <v>635</v>
-      </c>
-      <c r="E273" s="1">
         <v>1.0476328860214932</v>
       </c>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C274" s="1">
+        <v>636</v>
+      </c>
       <c r="D274" s="1">
-        <v>636</v>
-      </c>
-      <c r="E274" s="1">
         <v>1.0476812708554255</v>
       </c>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C275" s="1">
+        <v>637</v>
+      </c>
       <c r="D275" s="1">
-        <v>637</v>
-      </c>
-      <c r="E275" s="1">
         <v>1.0477308454803556</v>
       </c>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C276" s="1">
+        <v>638</v>
+      </c>
       <c r="D276" s="1">
-        <v>638</v>
-      </c>
-      <c r="E276" s="1">
         <v>1.0478564675799316</v>
       </c>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C277" s="1">
+        <v>639</v>
+      </c>
       <c r="D277" s="1">
-        <v>639</v>
-      </c>
-      <c r="E277" s="1">
         <v>1.0475473202188619</v>
       </c>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C278" s="1">
+        <v>640</v>
+      </c>
       <c r="D278" s="1">
-        <v>640</v>
-      </c>
-      <c r="E278" s="1">
         <v>1.0473821375685934</v>
       </c>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C279" s="1">
+        <v>641</v>
+      </c>
       <c r="D279" s="1">
-        <v>641</v>
-      </c>
-      <c r="E279" s="1">
         <v>1.0476238634397559</v>
       </c>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C280" s="1">
+        <v>642</v>
+      </c>
       <c r="D280" s="1">
-        <v>642</v>
-      </c>
-      <c r="E280" s="1">
         <v>1.0482105295511868</v>
       </c>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C281" s="1">
+        <v>643</v>
+      </c>
       <c r="D281" s="1">
-        <v>643</v>
-      </c>
-      <c r="E281" s="1">
         <v>1.048290443846575</v>
       </c>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C282" s="1">
+        <v>644</v>
+      </c>
       <c r="D282" s="1">
-        <v>644</v>
-      </c>
-      <c r="E282" s="1">
         <v>1.048356477246982</v>
       </c>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C283" s="1">
+        <v>645</v>
+      </c>
       <c r="D283" s="1">
-        <v>645</v>
-      </c>
-      <c r="E283" s="1">
         <v>1.048675242085287</v>
       </c>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C284" s="1">
+        <v>646</v>
+      </c>
       <c r="D284" s="1">
-        <v>646</v>
-      </c>
-      <c r="E284" s="1">
         <v>1.0492428715407445</v>
       </c>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C285" s="1">
+        <v>647</v>
+      </c>
       <c r="D285" s="1">
-        <v>647</v>
-      </c>
-      <c r="E285" s="1">
         <v>1.0492800525094432</v>
       </c>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C286" s="1">
+        <v>648</v>
+      </c>
       <c r="D286" s="1">
-        <v>648</v>
-      </c>
-      <c r="E286" s="1">
         <v>1.0492832252854389</v>
       </c>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C287" s="1">
+        <v>649</v>
+      </c>
       <c r="D287" s="1">
-        <v>649</v>
-      </c>
-      <c r="E287" s="1">
         <v>1.0495159285748641</v>
       </c>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C288" s="1">
+        <v>650</v>
+      </c>
       <c r="D288" s="1">
-        <v>650</v>
-      </c>
-      <c r="E288" s="1">
         <v>1.0492622056444674</v>
       </c>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C289" s="1">
+        <v>651</v>
+      </c>
       <c r="D289" s="1">
-        <v>651</v>
-      </c>
-      <c r="E289" s="1">
         <v>1.0493226866868841</v>
       </c>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C290" s="1">
+        <v>652</v>
+      </c>
       <c r="D290" s="1">
-        <v>652</v>
-      </c>
-      <c r="E290" s="1">
         <v>1.049855812203389</v>
       </c>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C291" s="1">
+        <v>653</v>
+      </c>
       <c r="D291" s="1">
-        <v>653</v>
-      </c>
-      <c r="E291" s="1">
         <v>1.0506251112330656</v>
       </c>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C292" s="1">
+        <v>654</v>
+      </c>
       <c r="D292" s="1">
-        <v>654</v>
-      </c>
-      <c r="E292" s="1">
         <v>1.0505710748918902</v>
       </c>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C293" s="1">
+        <v>655</v>
+      </c>
       <c r="D293" s="1">
-        <v>655</v>
-      </c>
-      <c r="E293" s="1">
         <v>1.0504641920005393</v>
       </c>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C294" s="1">
+        <v>656</v>
+      </c>
       <c r="D294" s="1">
-        <v>656</v>
-      </c>
-      <c r="E294" s="1">
         <v>1.0506093465023365</v>
       </c>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C295" s="1">
+        <v>657</v>
+      </c>
       <c r="D295" s="1">
-        <v>657</v>
-      </c>
-      <c r="E295" s="1">
         <v>1.0506664564702577</v>
       </c>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C296" s="1">
+        <v>658</v>
+      </c>
       <c r="D296" s="1">
-        <v>658</v>
-      </c>
-      <c r="E296" s="1">
         <v>1.0510237903667585</v>
       </c>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C297" s="1">
+        <v>659</v>
+      </c>
       <c r="D297" s="1">
-        <v>659</v>
-      </c>
-      <c r="E297" s="1">
         <v>1.0512172305532386</v>
       </c>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C298" s="1">
+        <v>660</v>
+      </c>
       <c r="D298" s="1">
-        <v>660</v>
-      </c>
-      <c r="E298" s="1">
         <v>1.0509993005020422</v>
       </c>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C299" s="1">
+        <v>661</v>
+      </c>
       <c r="D299" s="1">
-        <v>661</v>
-      </c>
-      <c r="E299" s="1">
         <v>1.0512409272239547</v>
       </c>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C300" s="1">
+        <v>662</v>
+      </c>
       <c r="D300" s="1">
-        <v>662</v>
-      </c>
-      <c r="E300" s="1">
         <v>1.0513891553524977</v>
       </c>
     </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C301" s="1">
+        <v>663</v>
+      </c>
       <c r="D301" s="1">
-        <v>663</v>
-      </c>
-      <c r="E301" s="1">
         <v>1.0512983346396256</v>
       </c>
     </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C302" s="1">
+        <v>664</v>
+      </c>
       <c r="D302" s="1">
-        <v>664</v>
-      </c>
-      <c r="E302" s="1">
         <v>1.0510736624394383</v>
       </c>
     </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C303" s="1">
+        <v>665</v>
+      </c>
       <c r="D303" s="1">
-        <v>665</v>
-      </c>
-      <c r="E303" s="1">
         <v>1.0509925583530526</v>
       </c>
     </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C304" s="1">
+        <v>666</v>
+      </c>
       <c r="D304" s="1">
-        <v>666</v>
-      </c>
-      <c r="E304" s="1">
         <v>1.0512341850749651</v>
       </c>
     </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C305" s="1">
+        <v>667</v>
+      </c>
       <c r="D305" s="1">
-        <v>667</v>
-      </c>
-      <c r="E305" s="1">
         <v>1.0517051440118066</v>
       </c>
     </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C306" s="1">
+        <v>668</v>
+      </c>
       <c r="D306" s="1">
-        <v>668</v>
-      </c>
-      <c r="E306" s="1">
         <v>1.0519639235539455</v>
       </c>
     </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C307" s="1">
+        <v>669</v>
+      </c>
       <c r="D307" s="1">
-        <v>669</v>
-      </c>
-      <c r="E307" s="1">
         <v>1.0522823909445007</v>
       </c>
     </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C308" s="1">
+        <v>670</v>
+      </c>
       <c r="D308" s="1">
-        <v>670</v>
-      </c>
-      <c r="E308" s="1">
         <v>1.052578450604587</v>
       </c>
     </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C309" s="1">
+        <v>671</v>
+      </c>
       <c r="D309" s="1">
-        <v>671</v>
-      </c>
-      <c r="E309" s="1">
         <v>1.0527191433901415</v>
       </c>
     </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C310" s="1">
+        <v>672</v>
+      </c>
       <c r="D310" s="1">
-        <v>672</v>
-      </c>
-      <c r="E310" s="1">
         <v>1.0527130952859001</v>
       </c>
     </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C311" s="1">
+        <v>673</v>
+      </c>
       <c r="D311" s="1">
-        <v>673</v>
-      </c>
-      <c r="E311" s="1">
         <v>1.0526666934369644</v>
       </c>
     </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C312" s="1">
+        <v>674</v>
+      </c>
       <c r="D312" s="1">
-        <v>674</v>
-      </c>
-      <c r="E312" s="1">
         <v>1.0527240017033841</v>
       </c>
     </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C313" s="1">
+        <v>675</v>
+      </c>
       <c r="D313" s="1">
-        <v>675</v>
-      </c>
-      <c r="E313" s="1">
         <v>1.0529958689465049</v>
       </c>
     </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C314" s="1">
+        <v>676</v>
+      </c>
       <c r="D314" s="1">
-        <v>676</v>
-      </c>
-      <c r="E314" s="1">
         <v>1.0531005705543595</v>
       </c>
     </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C315" s="1">
+        <v>677</v>
+      </c>
       <c r="D315" s="1">
-        <v>677</v>
-      </c>
-      <c r="E315" s="1">
         <v>1.0531914904164814</v>
       </c>
     </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C316" s="1">
+        <v>678</v>
+      </c>
       <c r="D316" s="1">
-        <v>678</v>
-      </c>
-      <c r="E316" s="1">
         <v>1.0534106102586756</v>
       </c>
     </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C317" s="1">
+        <v>679</v>
+      </c>
       <c r="D317" s="1">
-        <v>679</v>
-      </c>
-      <c r="E317" s="1">
         <v>1.0538244592275983</v>
       </c>
     </row>
-    <row r="318" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C318" s="1">
+        <v>680</v>
+      </c>
       <c r="D318" s="1">
-        <v>680</v>
-      </c>
-      <c r="E318" s="1">
         <v>1.054018990055827</v>
       </c>
     </row>
-    <row r="319" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C319" s="1">
+        <v>681</v>
+      </c>
       <c r="D319" s="1">
-        <v>681</v>
-      </c>
-      <c r="E319" s="1">
         <v>1.0540332675478064</v>
       </c>
     </row>
-    <row r="320" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C320" s="1">
+        <v>682</v>
+      </c>
       <c r="D320" s="1">
-        <v>682</v>
-      </c>
-      <c r="E320" s="1">
         <v>1.0540264262495656</v>
       </c>
     </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C321" s="1">
+        <v>683</v>
+      </c>
       <c r="D321" s="1">
-        <v>683</v>
-      </c>
-      <c r="E321" s="1">
         <v>1.0538125613176152</v>
       </c>
     </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C322" s="1">
+        <v>684</v>
+      </c>
       <c r="D322" s="1">
-        <v>684</v>
-      </c>
-      <c r="E322" s="1">
         <v>1.053754658155696</v>
       </c>
     </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C323" s="1">
+        <v>685</v>
+      </c>
       <c r="D323" s="1">
-        <v>685</v>
-      </c>
-      <c r="E323" s="1">
         <v>1.05386600276329</v>
       </c>
     </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C324" s="1">
+        <v>686</v>
+      </c>
       <c r="D324" s="1">
-        <v>686</v>
-      </c>
-      <c r="E324" s="1">
         <v>1.0538739347032795</v>
       </c>
     </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C325" s="1">
+        <v>687</v>
+      </c>
       <c r="D325" s="1">
-        <v>687</v>
-      </c>
-      <c r="E325" s="1">
         <v>1.0541090175747012</v>
       </c>
     </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C326" s="1">
+        <v>688</v>
+      </c>
       <c r="D326" s="1">
-        <v>688</v>
-      </c>
-      <c r="E326" s="1">
         <v>1.0543193131336566</v>
       </c>
     </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C327" s="1">
+        <v>689</v>
+      </c>
       <c r="D327" s="1">
-        <v>689</v>
-      </c>
-      <c r="E327" s="1">
         <v>1.0544300628457524</v>
       </c>
     </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C328" s="1">
+        <v>690</v>
+      </c>
       <c r="D328" s="1">
-        <v>690</v>
-      </c>
-      <c r="E328" s="1">
         <v>1.0547509098183039</v>
       </c>
     </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C329" s="1">
+        <v>691</v>
+      </c>
       <c r="D329" s="1">
-        <v>691</v>
-      </c>
-      <c r="E329" s="1">
         <v>1.0548628493213985</v>
       </c>
     </row>
-    <row r="330" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C330" s="1">
+        <v>692</v>
+      </c>
       <c r="D330" s="1">
-        <v>692</v>
-      </c>
-      <c r="E330" s="1">
         <v>1.054779563951515</v>
       </c>
     </row>
-    <row r="331" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C331" s="1">
+        <v>693</v>
+      </c>
       <c r="D331" s="1">
-        <v>693</v>
-      </c>
-      <c r="E331" s="1">
         <v>1.0546687150901692</v>
       </c>
     </row>
-    <row r="332" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C332" s="1">
+        <v>694</v>
+      </c>
       <c r="D332" s="1">
-        <v>694</v>
-      </c>
-      <c r="E332" s="1">
         <v>1.0545312942298617</v>
       </c>
     </row>
-    <row r="333" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C333" s="1">
+        <v>695</v>
+      </c>
       <c r="D333" s="1">
-        <v>695</v>
-      </c>
-      <c r="E333" s="1">
         <v>1.0548500590681664</v>
       </c>
     </row>
-    <row r="334" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C334" s="1">
+        <v>696</v>
+      </c>
       <c r="D334" s="1">
-        <v>696</v>
-      </c>
-      <c r="E334" s="1">
         <v>1.0553767398834302</v>
       </c>
     </row>
-    <row r="335" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C335" s="1">
+        <v>697</v>
+      </c>
       <c r="D335" s="1">
-        <v>697</v>
-      </c>
-      <c r="E335" s="1">
         <v>1.0552126478749093</v>
       </c>
     </row>
-    <row r="336" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C336" s="1">
+        <v>698</v>
+      </c>
       <c r="D336" s="1">
-        <v>698</v>
-      </c>
-      <c r="E336" s="1">
         <v>1.0550040378532011</v>
       </c>
     </row>
-    <row r="337" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C337" s="1">
+        <v>699</v>
+      </c>
       <c r="D337" s="1">
-        <v>699</v>
-      </c>
-      <c r="E337" s="1">
         <v>1.0550935696258259</v>
       </c>
     </row>
-    <row r="338" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C338" s="1">
+        <v>700</v>
+      </c>
       <c r="D338" s="1">
-        <v>700</v>
-      </c>
-      <c r="E338" s="1">
         <v>1.0554985943115098</v>
       </c>
     </row>
-    <row r="339" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C339" s="1">
+        <v>701</v>
+      </c>
       <c r="D339" s="1">
-        <v>701</v>
-      </c>
-      <c r="E339" s="1">
         <v>1.0556972894082333</v>
       </c>
     </row>
-    <row r="340" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C340" s="1">
+        <v>702</v>
+      </c>
       <c r="D340" s="1">
-        <v>702</v>
-      </c>
-      <c r="E340" s="1">
         <v>1.0559615221591143</v>
       </c>
     </row>
-    <row r="341" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C341" s="1">
+        <v>703</v>
+      </c>
       <c r="D341" s="1">
-        <v>703</v>
-      </c>
-      <c r="E341" s="1">
         <v>1.0562606554459464</v>
       </c>
     </row>
-    <row r="342" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C342" s="1">
+        <v>704</v>
+      </c>
       <c r="D342" s="1">
-        <v>704</v>
-      </c>
-      <c r="E342" s="1">
         <v>1.0564819565716368</v>
       </c>
     </row>
-    <row r="343" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C343" s="1">
+        <v>705</v>
+      </c>
       <c r="D343" s="1">
-        <v>705</v>
-      </c>
-      <c r="E343" s="1">
         <v>1.0565323243905675</v>
       </c>
     </row>
-    <row r="344" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C344" s="1">
+        <v>706</v>
+      </c>
       <c r="D344" s="1">
-        <v>706</v>
-      </c>
-      <c r="E344" s="1">
         <v>1.0564104699624879</v>
       </c>
     </row>
-    <row r="345" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C345" s="1">
+        <v>707</v>
+      </c>
       <c r="D345" s="1">
-        <v>707</v>
-      </c>
-      <c r="E345" s="1">
         <v>1.0563179637123661</v>
       </c>
     </row>
-    <row r="346" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C346" s="1">
+        <v>708</v>
+      </c>
       <c r="D346" s="1">
-        <v>708</v>
-      </c>
-      <c r="E346" s="1">
         <v>1.0565584997925312</v>
       </c>
     </row>
-    <row r="347" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C347" s="1">
+        <v>709</v>
+      </c>
       <c r="D347" s="1">
-        <v>709</v>
-      </c>
-      <c r="E347" s="1">
         <v>1.0564465602894364</v>
       </c>
     </row>
-    <row r="348" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C348" s="1">
+        <v>710</v>
+      </c>
       <c r="D348" s="1">
-        <v>710</v>
-      </c>
-      <c r="E348" s="1">
         <v>1.0564163197682295</v>
       </c>
     </row>
-    <row r="349" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C349" s="1">
+        <v>711</v>
+      </c>
       <c r="D349" s="1">
-        <v>711</v>
-      </c>
-      <c r="E349" s="1">
         <v>1.0567121811298159</v>
       </c>
     </row>
-    <row r="350" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C350" s="1">
+        <v>712</v>
+      </c>
       <c r="D350" s="1">
-        <v>712</v>
-      </c>
-      <c r="E350" s="1">
         <v>1.0564099742162383</v>
       </c>
     </row>
-    <row r="351" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C351" s="1">
+        <v>713</v>
+      </c>
       <c r="D351" s="1">
-        <v>713</v>
-      </c>
-      <c r="E351" s="1">
         <v>1.0563838979635245</v>
       </c>
     </row>
-    <row r="352" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C352" s="1">
+        <v>714</v>
+      </c>
       <c r="D352" s="1">
-        <v>714</v>
-      </c>
-      <c r="E352" s="1">
         <v>1.056726756069545</v>
       </c>
     </row>
-    <row r="353" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C353" s="1">
+        <v>715</v>
+      </c>
       <c r="D353" s="1">
-        <v>715</v>
-      </c>
-      <c r="E353" s="1">
         <v>1.057145066754712</v>
       </c>
     </row>
-    <row r="354" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C354" s="1">
+        <v>716</v>
+      </c>
       <c r="D354" s="1">
-        <v>716</v>
-      </c>
-      <c r="E354" s="1">
         <v>1.0571949388273918</v>
       </c>
     </row>
-    <row r="355" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C355" s="1">
+        <v>717</v>
+      </c>
       <c r="D355" s="1">
-        <v>717</v>
-      </c>
-      <c r="E355" s="1">
         <v>1.0571686642761782</v>
       </c>
     </row>
-    <row r="356" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C356" s="1">
+        <v>718</v>
+      </c>
       <c r="D356" s="1">
-        <v>718</v>
-      </c>
-      <c r="E356" s="1">
         <v>1.0571762987684179</v>
       </c>
     </row>
-    <row r="357" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C357" s="1">
+        <v>719</v>
+      </c>
       <c r="D357" s="1">
-        <v>719</v>
-      </c>
-      <c r="E357" s="1">
         <v>1.0571046138607676</v>
       </c>
     </row>
-    <row r="358" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C358" s="1">
+        <v>720</v>
+      </c>
       <c r="D358" s="1">
-        <v>720</v>
-      </c>
-      <c r="E358" s="1">
         <v>1.0569814704924394</v>
       </c>
     </row>
-    <row r="359" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C359" s="1">
+        <v>721</v>
+      </c>
       <c r="D359" s="1">
-        <v>721</v>
-      </c>
-      <c r="E359" s="1">
         <v>1.0571463556949594</v>
       </c>
     </row>
-    <row r="360" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C360" s="1">
+        <v>722</v>
+      </c>
       <c r="D360" s="1">
-        <v>722</v>
-      </c>
-      <c r="E360" s="1">
         <v>1.0576184052735509</v>
       </c>
     </row>
-    <row r="361" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C361" s="1">
+        <v>723</v>
+      </c>
       <c r="D361" s="1">
-        <v>723</v>
-      </c>
-      <c r="E361" s="1">
         <v>1.0575079530092046</v>
       </c>
     </row>
-    <row r="362" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C362" s="1">
+        <v>724</v>
+      </c>
       <c r="D362" s="1">
-        <v>724</v>
-      </c>
-      <c r="E362" s="1">
         <v>1.0574832648459898</v>
       </c>
     </row>
-    <row r="363" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C363" s="1">
+        <v>725</v>
+      </c>
       <c r="D363" s="1">
-        <v>725</v>
-      </c>
-      <c r="E363" s="1">
         <v>1.0575017066064636</v>
       </c>
     </row>
-    <row r="364" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C364" s="1">
+        <v>726</v>
+      </c>
       <c r="D364" s="1">
-        <v>726</v>
-      </c>
-      <c r="E364" s="1">
         <v>1.0573490167616764</v>
       </c>
     </row>
-    <row r="365" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C365" s="1">
+        <v>727</v>
+      </c>
       <c r="D365" s="1">
-        <v>727</v>
-      </c>
-      <c r="E365" s="1">
         <v>1.057383520700629</v>
       </c>
     </row>
-    <row r="366" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C366" s="1">
+        <v>728</v>
+      </c>
       <c r="D366" s="1">
-        <v>728</v>
-      </c>
-      <c r="E366" s="1">
         <v>1.0574247667885712</v>
       </c>
     </row>
-    <row r="367" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C367" s="1">
+        <v>729</v>
+      </c>
       <c r="D367" s="1">
-        <v>729</v>
-      </c>
-      <c r="E367" s="1">
         <v>1.0574115799383395</v>
       </c>
     </row>
-    <row r="368" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C368" s="1">
+        <v>730</v>
+      </c>
       <c r="D368" s="1">
-        <v>730</v>
-      </c>
-      <c r="E368" s="1">
         <v>1.057471862682255</v>
       </c>
     </row>
-    <row r="369" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C369" s="1">
+        <v>731</v>
+      </c>
       <c r="D369" s="1">
-        <v>731</v>
-      </c>
-      <c r="E369" s="1">
         <v>1.0575809268571024</v>
       </c>
     </row>
-    <row r="370" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C370" s="1">
+        <v>732</v>
+      </c>
       <c r="D370" s="1">
-        <v>732</v>
-      </c>
-      <c r="E370" s="1">
         <v>1.0574908993382282</v>
       </c>
     </row>
-    <row r="371" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C371" s="1">
+        <v>733</v>
+      </c>
       <c r="D371" s="1">
-        <v>733</v>
-      </c>
-      <c r="E371" s="1">
         <v>1.0571695566194275</v>
       </c>
     </row>
-    <row r="372" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C372" s="1">
+        <v>734</v>
+      </c>
       <c r="D372" s="1">
-        <v>734</v>
-      </c>
-      <c r="E372" s="1">
         <v>1.0571353501282255</v>
       </c>
     </row>
-    <row r="373" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C373" s="1">
+        <v>735</v>
+      </c>
       <c r="D373" s="1">
-        <v>735</v>
-      </c>
-      <c r="E373" s="1">
         <v>1.0571547833811985</v>
       </c>
     </row>
-    <row r="374" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C374" s="1">
+        <v>736</v>
+      </c>
       <c r="D374" s="1">
-        <v>736</v>
-      </c>
-      <c r="E374" s="1">
         <v>1.057105407054767</v>
       </c>
     </row>
-    <row r="375" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C375" s="1">
+        <v>737</v>
+      </c>
       <c r="D375" s="1">
-        <v>737</v>
-      </c>
-      <c r="E375" s="1">
         <v>1.0569356635390046</v>
       </c>
     </row>
-    <row r="376" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C376" s="1">
+        <v>738</v>
+      </c>
       <c r="D376" s="1">
-        <v>738</v>
-      </c>
-      <c r="E376" s="1">
         <v>1.0568812306008306</v>
       </c>
     </row>
-    <row r="377" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C377" s="1">
+        <v>739</v>
+      </c>
       <c r="D377" s="1">
-        <v>739</v>
-      </c>
-      <c r="E377" s="1">
         <v>1.0568263019164073</v>
       </c>
     </row>
-    <row r="378" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C378" s="1">
+        <v>740</v>
+      </c>
       <c r="D378" s="1">
-        <v>740</v>
-      </c>
-      <c r="E378" s="1">
         <v>1.0567849566792138</v>
       </c>
     </row>
-    <row r="379" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C379" s="1">
+        <v>741</v>
+      </c>
       <c r="D379" s="1">
-        <v>741</v>
-      </c>
-      <c r="E379" s="1">
         <v>1.0568647718253534</v>
       </c>
     </row>
-    <row r="380" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C380" s="1">
+        <v>742</v>
+      </c>
       <c r="D380" s="1">
-        <v>742</v>
-      </c>
-      <c r="E380" s="1">
         <v>1.05683096193115</v>
       </c>
     </row>
-    <row r="381" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C381" s="1">
+        <v>743</v>
+      </c>
       <c r="D381" s="1">
-        <v>743</v>
-      </c>
-      <c r="E381" s="1">
         <v>1.0567992341711945</v>
       </c>
     </row>
-    <row r="382" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C382" s="1">
+        <v>744</v>
+      </c>
       <c r="D382" s="1">
-        <v>744</v>
-      </c>
-      <c r="E382" s="1">
         <v>1.0568323500206487</v>
       </c>
     </row>
-    <row r="383" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C383" s="1">
+        <v>745</v>
+      </c>
       <c r="D383" s="1">
-        <v>745</v>
-      </c>
-      <c r="E383" s="1">
         <v>1.0568200555136662</v>
       </c>
     </row>
-    <row r="384" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C384" s="1">
+        <v>746</v>
+      </c>
       <c r="D384" s="1">
-        <v>746</v>
-      </c>
-      <c r="E384" s="1">
         <v>1.0565535423300374</v>
       </c>
     </row>
-    <row r="385" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C385" s="1">
+        <v>747</v>
+      </c>
       <c r="D385" s="1">
-        <v>747</v>
-      </c>
-      <c r="E385" s="1">
         <v>1.0562092961345182</v>
       </c>
     </row>
-    <row r="386" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C386" s="1">
+        <v>748</v>
+      </c>
       <c r="D386" s="1">
-        <v>748</v>
-      </c>
-      <c r="E386" s="1">
         <v>1.056030728335517</v>
       </c>
     </row>
-    <row r="387" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C387" s="1">
+        <v>749</v>
+      </c>
       <c r="D387" s="1">
-        <v>749</v>
-      </c>
-      <c r="E387" s="1">
         <v>1.0560371730367579</v>
       </c>
     </row>
-    <row r="388" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C388" s="1">
+        <v>750</v>
+      </c>
       <c r="D388" s="1">
-        <v>750</v>
-      </c>
-      <c r="E388" s="1">
         <v>1.0559144262654294</v>
       </c>
     </row>
-    <row r="389" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C389" s="1">
+        <v>751</v>
+      </c>
       <c r="D389" s="1">
-        <v>751</v>
-      </c>
-      <c r="E389" s="1">
         <v>1.0556471198878026</v>
       </c>
     </row>
-    <row r="390" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C390" s="1">
+        <v>752</v>
+      </c>
       <c r="D390" s="1">
-        <v>752</v>
-      </c>
-      <c r="E390" s="1">
         <v>1.0554652801635571</v>
       </c>
     </row>
-    <row r="391" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C391" s="1">
+        <v>753</v>
+      </c>
       <c r="D391" s="1">
-        <v>753</v>
-      </c>
-      <c r="E391" s="1">
         <v>1.0554417817913395</v>
       </c>
     </row>
-    <row r="392" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C392" s="1">
+        <v>754</v>
+      </c>
       <c r="D392" s="1">
-        <v>754</v>
-      </c>
-      <c r="E392" s="1">
         <v>1.055438708164594</v>
       </c>
     </row>
-    <row r="393" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C393" s="1">
+        <v>755</v>
+      </c>
       <c r="D393" s="1">
-        <v>755</v>
-      </c>
-      <c r="E393" s="1">
         <v>1.0553970654796523</v>
       </c>
     </row>
-    <row r="394" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C394" s="1">
+        <v>756</v>
+      </c>
       <c r="D394" s="1">
-        <v>756</v>
-      </c>
-      <c r="E394" s="1">
         <v>1.0554447562688354</v>
       </c>
     </row>
-    <row r="395" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C395" s="1">
+        <v>757</v>
+      </c>
       <c r="D395" s="1">
-        <v>757</v>
-      </c>
-      <c r="E395" s="1">
         <v>1.0551179603412926</v>
       </c>
     </row>
-    <row r="396" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C396" s="1">
+        <v>758</v>
+      </c>
       <c r="D396" s="1">
-        <v>758</v>
-      </c>
-      <c r="E396" s="1">
         <v>1.0546799189554028</v>
       </c>
     </row>
-    <row r="397" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C397" s="1">
+        <v>759</v>
+      </c>
       <c r="D397" s="1">
-        <v>759</v>
-      </c>
-      <c r="E397" s="1">
         <v>1.0544546518597175</v>
       </c>
     </row>
-    <row r="398" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C398" s="1">
+        <v>760</v>
+      </c>
       <c r="D398" s="1">
-        <v>760</v>
-      </c>
-      <c r="E398" s="1">
         <v>1.0543796950268234</v>
       </c>
     </row>
-    <row r="399" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C399" s="1">
+        <v>761</v>
+      </c>
       <c r="D399" s="1">
-        <v>761</v>
-      </c>
-      <c r="E399" s="1">
         <v>1.0542808432247104</v>
       </c>
     </row>
-    <row r="400" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C400" s="1">
+        <v>762</v>
+      </c>
       <c r="D400" s="1">
-        <v>762</v>
-      </c>
-      <c r="E400" s="1">
         <v>1.0541693994678665</v>
       </c>
     </row>
-    <row r="401" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C401" s="1">
+        <v>763</v>
+      </c>
       <c r="D401" s="1">
-        <v>763</v>
-      </c>
-      <c r="E401" s="1">
         <v>1.054122799320431</v>
       </c>
     </row>
-    <row r="402" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C402" s="1">
+        <v>764</v>
+      </c>
       <c r="D402" s="1">
-        <v>764</v>
-      </c>
-      <c r="E402" s="1">
         <v>1.0538969373292462</v>
       </c>
     </row>
-    <row r="403" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C403" s="1">
+        <v>765</v>
+      </c>
       <c r="D403" s="1">
-        <v>765</v>
-      </c>
-      <c r="E403" s="1">
         <v>1.0536271522203733</v>
       </c>
     </row>
-    <row r="404" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C404" s="1">
+        <v>766</v>
+      </c>
       <c r="D404" s="1">
-        <v>766</v>
-      </c>
-      <c r="E404" s="1">
         <v>1.0533624237232426</v>
       </c>
     </row>
-    <row r="405" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C405" s="1">
+        <v>767</v>
+      </c>
       <c r="D405" s="1">
-        <v>767</v>
-      </c>
-      <c r="E405" s="1">
         <v>1.0530277950049602</v>
       </c>
     </row>
-    <row r="406" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C406" s="1">
+        <v>768</v>
+      </c>
       <c r="D406" s="1">
-        <v>768</v>
-      </c>
-      <c r="E406" s="1">
         <v>1.0528292982067378</v>
       </c>
     </row>
-    <row r="407" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C407" s="1">
+        <v>769</v>
+      </c>
       <c r="D407" s="1">
-        <v>769</v>
-      </c>
-      <c r="E407" s="1">
         <v>1.052642996766247</v>
       </c>
     </row>
-    <row r="408" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C408" s="1">
+        <v>770</v>
+      </c>
       <c r="D408" s="1">
-        <v>770</v>
-      </c>
-      <c r="E408" s="1">
         <v>1.0524025598353333</v>
       </c>
     </row>
-    <row r="409" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C409" s="1">
+        <v>771</v>
+      </c>
       <c r="D409" s="1">
-        <v>771</v>
-      </c>
-      <c r="E409" s="1">
         <v>1.052432502908792</v>
       </c>
     </row>
-    <row r="410" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C410" s="1">
+        <v>772</v>
+      </c>
       <c r="D410" s="1">
-        <v>772</v>
-      </c>
-      <c r="E410" s="1">
         <v>1.0521198853239784</v>
       </c>
     </row>
-    <row r="411" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C411" s="1">
+        <v>773</v>
+      </c>
       <c r="D411" s="1">
-        <v>773</v>
-      </c>
-      <c r="E411" s="1">
         <v>1.0516100598811899</v>
       </c>
     </row>
-    <row r="412" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C412" s="1">
+        <v>774</v>
+      </c>
       <c r="D412" s="1">
-        <v>774</v>
-      </c>
-      <c r="E412" s="1">
         <v>1.0512987312366251</v>
       </c>
     </row>
-    <row r="413" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C413" s="1">
+        <v>775</v>
+      </c>
       <c r="D413" s="1">
-        <v>775</v>
-      </c>
-      <c r="E413" s="1">
         <v>1.0511988879420147</v>
       </c>
     </row>
-    <row r="414" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C414" s="1">
+        <v>776</v>
+      </c>
       <c r="D414" s="1">
-        <v>776</v>
-      </c>
-      <c r="E414" s="1">
         <v>1.0510888322746681</v>
       </c>
     </row>
-    <row r="415" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C415" s="1">
+        <v>777</v>
+      </c>
       <c r="D415" s="1">
-        <v>777</v>
-      </c>
-      <c r="E415" s="1">
         <v>1.0507661014663685</v>
       </c>
     </row>
-    <row r="416" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C416" s="1">
+        <v>778</v>
+      </c>
       <c r="D416" s="1">
-        <v>778</v>
-      </c>
-      <c r="E416" s="1">
         <v>1.0501497897292287</v>
       </c>
     </row>
-    <row r="417" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C417" s="1">
+        <v>779</v>
+      </c>
       <c r="D417" s="1">
-        <v>779</v>
-      </c>
-      <c r="E417" s="1">
         <v>1.0498294385029254</v>
       </c>
     </row>
-    <row r="418" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C418" s="1">
+        <v>780</v>
+      </c>
       <c r="D418" s="1">
-        <v>780</v>
-      </c>
-      <c r="E418" s="1">
         <v>1.0497217624175765</v>
       </c>
     </row>
-    <row r="419" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C419" s="1">
+        <v>781</v>
+      </c>
       <c r="D419" s="1">
-        <v>781</v>
-      </c>
-      <c r="E419" s="1">
         <v>1.049651564748675</v>
       </c>
     </row>
-    <row r="420" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C420" s="1">
+        <v>782</v>
+      </c>
       <c r="D420" s="1">
-        <v>782</v>
-      </c>
-      <c r="E420" s="1">
         <v>1.0494849940089066</v>
       </c>
     </row>
-    <row r="421" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C421" s="1">
+        <v>783</v>
+      </c>
       <c r="D421" s="1">
-        <v>783</v>
-      </c>
-      <c r="E421" s="1">
         <v>1.0489961882070897</v>
       </c>
     </row>
-    <row r="422" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C422" s="1">
+        <v>784</v>
+      </c>
       <c r="D422" s="1">
-        <v>784</v>
-      </c>
-      <c r="E422" s="1">
         <v>1.0485314756729882</v>
       </c>
     </row>
-    <row r="423" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C423" s="1">
+        <v>785</v>
+      </c>
       <c r="D423" s="1">
-        <v>785</v>
-      </c>
-      <c r="E423" s="1">
         <v>1.0483268316212746</v>
       </c>
     </row>
-    <row r="424" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C424" s="1">
+        <v>786</v>
+      </c>
       <c r="D424" s="1">
-        <v>786</v>
-      </c>
-      <c r="E424" s="1">
         <v>1.0477330267638534</v>
       </c>
     </row>
-    <row r="425" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C425" s="1">
+        <v>787</v>
+      </c>
       <c r="D425" s="1">
-        <v>787</v>
-      </c>
-      <c r="E425" s="1">
         <v>1.0473218548246768</v>
       </c>
     </row>
-    <row r="426" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C426" s="1">
+        <v>788</v>
+      </c>
       <c r="D426" s="1">
-        <v>788</v>
-      </c>
-      <c r="E426" s="1">
         <v>1.047137635518435</v>
       </c>
     </row>
-    <row r="427" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C427" s="1">
+        <v>789</v>
+      </c>
       <c r="D427" s="1">
-        <v>789</v>
-      </c>
-      <c r="E427" s="1">
         <v>1.0469453851229527</v>
       </c>
     </row>
-    <row r="428" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C428" s="1">
+        <v>790</v>
+      </c>
       <c r="D428" s="1">
-        <v>790</v>
-      </c>
-      <c r="E428" s="1">
         <v>1.0466140283299155</v>
       </c>
     </row>
-    <row r="429" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C429" s="1">
+        <v>791</v>
+      </c>
       <c r="D429" s="1">
-        <v>791</v>
-      </c>
-      <c r="E429" s="1">
         <v>1.0463401781017978</v>
       </c>
     </row>
-    <row r="430" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C430" s="1">
+        <v>792</v>
+      </c>
       <c r="D430" s="1">
-        <v>792</v>
-      </c>
-      <c r="E430" s="1">
         <v>1.0462130687634748</v>
       </c>
     </row>
-    <row r="431" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C431" s="1">
+        <v>793</v>
+      </c>
       <c r="D431" s="1">
-        <v>793</v>
-      </c>
-      <c r="E431" s="1">
         <v>1.046146737915318</v>
       </c>
     </row>
-    <row r="432" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C432" s="1">
+        <v>794</v>
+      </c>
       <c r="D432" s="1">
-        <v>794</v>
-      </c>
-      <c r="E432" s="1">
         <v>1.0457469681398761</v>
       </c>
     </row>
-    <row r="433" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C433" s="1">
+        <v>795</v>
+      </c>
       <c r="D433" s="1">
-        <v>795</v>
-      </c>
-      <c r="E433" s="1">
         <v>1.0453214195594704</v>
       </c>
     </row>
-    <row r="434" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C434" s="1">
+        <v>796</v>
+      </c>
       <c r="D434" s="1">
-        <v>796</v>
-      </c>
-      <c r="E434" s="1">
         <v>1.0450206007353897</v>
       </c>
     </row>
-    <row r="435" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C435" s="1">
+        <v>797</v>
+      </c>
       <c r="D435" s="1">
-        <v>797</v>
-      </c>
-      <c r="E435" s="1">
         <v>1.0444613989661713</v>
       </c>
     </row>
-    <row r="436" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C436" s="1">
+        <v>798</v>
+      </c>
       <c r="D436" s="1">
-        <v>798</v>
-      </c>
-      <c r="E436" s="1">
         <v>1.0440991076071766</v>
       </c>
     </row>
-    <row r="437" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C437" s="1">
+        <v>799</v>
+      </c>
       <c r="D437" s="1">
-        <v>799</v>
-      </c>
-      <c r="E437" s="1">
         <v>1.043816036498822</v>
       </c>
     </row>
-    <row r="438" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C438" s="1">
+        <v>800</v>
+      </c>
       <c r="D438" s="1">
-        <v>800</v>
-      </c>
-      <c r="E438" s="1">
         <v>1.0434144820368834</v>
       </c>
     </row>
-    <row r="439" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C439" s="1">
+        <v>801</v>
+      </c>
       <c r="D439" s="1">
-        <v>801</v>
-      </c>
-      <c r="E439" s="1">
         <v>1.0429903215459748</v>
       </c>
     </row>
-    <row r="440" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C440" s="1">
+        <v>802</v>
+      </c>
       <c r="D440" s="1">
-        <v>802</v>
-      </c>
-      <c r="E440" s="1">
         <v>1.0429344013690538</v>
       </c>
     </row>
-    <row r="441" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C441" s="1">
+        <v>803</v>
+      </c>
       <c r="D441" s="1">
-        <v>803</v>
-      </c>
-      <c r="E441" s="1">
         <v>1.0429421350105421</v>
       </c>
     </row>
-    <row r="442" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C442" s="1">
+        <v>804</v>
+      </c>
       <c r="D442" s="1">
-        <v>804</v>
-      </c>
-      <c r="E442" s="1">
         <v>1.0424339951050021</v>
       </c>
     </row>
-    <row r="443" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C443" s="1">
+        <v>805</v>
+      </c>
       <c r="D443" s="1">
-        <v>805</v>
-      </c>
-      <c r="E443" s="1">
         <v>1.0417651342654353</v>
       </c>
     </row>
-    <row r="444" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C444" s="1">
+        <v>806</v>
+      </c>
       <c r="D444" s="1">
-        <v>806</v>
-      </c>
-      <c r="E444" s="1">
         <v>1.041228736823685</v>
       </c>
     </row>
-    <row r="445" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C445" s="1">
+        <v>807</v>
+      </c>
       <c r="D445" s="1">
-        <v>807</v>
-      </c>
-      <c r="E445" s="1">
         <v>1.0409048162243866</v>
       </c>
     </row>
-    <row r="446" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C446" s="1">
+        <v>808</v>
+      </c>
       <c r="D446" s="1">
-        <v>808</v>
-      </c>
-      <c r="E446" s="1">
         <v>1.0406772686959549</v>
       </c>
     </row>
-    <row r="447" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C447" s="1">
+        <v>809</v>
+      </c>
       <c r="D447" s="1">
-        <v>809</v>
-      </c>
-      <c r="E447" s="1">
         <v>1.0402851334127527</v>
       </c>
     </row>
-    <row r="448" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C448" s="1">
+        <v>810</v>
+      </c>
       <c r="D448" s="1">
-        <v>810</v>
-      </c>
-      <c r="E448" s="1">
         <v>1.0400442007355883</v>
       </c>
     </row>
-    <row r="449" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C449" s="1">
+        <v>811</v>
+      </c>
       <c r="D449" s="1">
-        <v>811</v>
-      </c>
-      <c r="E449" s="1">
         <v>1.0400360704971001</v>
       </c>
     </row>
-    <row r="450" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C450" s="1">
+        <v>812</v>
+      </c>
       <c r="D450" s="1">
-        <v>812</v>
-      </c>
-      <c r="E450" s="1">
         <v>1.0397308891060266</v>
       </c>
     </row>
-    <row r="451" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C451" s="1">
+        <v>813</v>
+      </c>
       <c r="D451" s="1">
-        <v>813</v>
-      </c>
-      <c r="E451" s="1">
         <v>1.0394122234169705</v>
       </c>
     </row>
-    <row r="452" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C452" s="1">
+        <v>814</v>
+      </c>
       <c r="D452" s="1">
-        <v>814</v>
-      </c>
-      <c r="E452" s="1">
         <v>1.0391011922201556</v>
       </c>
     </row>
-    <row r="453" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C453" s="1">
+        <v>815</v>
+      </c>
       <c r="D453" s="1">
-        <v>815</v>
-      </c>
-      <c r="E453" s="1">
         <v>1.0387684473376197</v>
       </c>
     </row>
-    <row r="454" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C454" s="1">
+        <v>816</v>
+      </c>
       <c r="D454" s="1">
-        <v>816</v>
-      </c>
-      <c r="E454" s="1">
         <v>1.0384476003650682</v>
       </c>
     </row>
-    <row r="455" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C455" s="1">
+        <v>817</v>
+      </c>
       <c r="D455" s="1">
-        <v>817</v>
-      </c>
-      <c r="E455" s="1">
         <v>1.0379765422789757</v>
       </c>
     </row>
-    <row r="456" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C456" s="1">
+        <v>818</v>
+      </c>
       <c r="D456" s="1">
-        <v>818</v>
-      </c>
-      <c r="E456" s="1">
         <v>1.0373444658111082</v>
       </c>
     </row>
-    <row r="457" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C457" s="1">
+        <v>819</v>
+      </c>
       <c r="D457" s="1">
-        <v>819</v>
-      </c>
-      <c r="E457" s="1">
         <v>1.0366958314185137</v>
       </c>
     </row>
-    <row r="458" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C458" s="1">
+        <v>820</v>
+      </c>
       <c r="D458" s="1">
-        <v>820</v>
-      </c>
-      <c r="E458" s="1">
         <v>1.0364612442933414</v>
       </c>
     </row>
-    <row r="459" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C459" s="1">
+        <v>821</v>
+      </c>
       <c r="D459" s="1">
-        <v>821</v>
-      </c>
-      <c r="E459" s="1">
         <v>1.0360844771438675</v>
       </c>
     </row>
-    <row r="460" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C460" s="1">
+        <v>822</v>
+      </c>
       <c r="D460" s="1">
-        <v>822</v>
-      </c>
-      <c r="E460" s="1">
         <v>1.0355207145091549</v>
       </c>
     </row>
-    <row r="461" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C461" s="1">
+        <v>823</v>
+      </c>
       <c r="D461" s="1">
-        <v>823</v>
-      </c>
-      <c r="E461" s="1">
         <v>1.0351671482841478</v>
       </c>
     </row>
-    <row r="462" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C462" s="1">
+        <v>824</v>
+      </c>
       <c r="D462" s="1">
-        <v>824</v>
-      </c>
-      <c r="E462" s="1">
         <v>1.0347777891799415</v>
       </c>
     </row>
-    <row r="463" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C463" s="1">
+        <v>825</v>
+      </c>
       <c r="D463" s="1">
-        <v>825</v>
-      </c>
-      <c r="E463" s="1">
         <v>1.0346578185876087</v>
       </c>
     </row>
-    <row r="464" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C464" s="1">
+        <v>826</v>
+      </c>
       <c r="D464" s="1">
-        <v>826</v>
-      </c>
-      <c r="E464" s="1">
         <v>1.0346923225265616</v>
       </c>
     </row>
-    <row r="465" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C465" s="1">
+        <v>827</v>
+      </c>
       <c r="D465" s="1">
-        <v>827</v>
-      </c>
-      <c r="E465" s="1">
         <v>1.0340424983429679</v>
       </c>
     </row>
-    <row r="466" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C466" s="1">
+        <v>828</v>
+      </c>
       <c r="D466" s="1">
-        <v>828</v>
-      </c>
-      <c r="E466" s="1">
         <v>1.0338006733225555</v>
       </c>
     </row>
-    <row r="467" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C467" s="1">
+        <v>829</v>
+      </c>
       <c r="D467" s="1">
-        <v>829</v>
-      </c>
-      <c r="E467" s="1">
         <v>1.0336659294919939</v>
       </c>
     </row>
-    <row r="468" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C468" s="1">
+        <v>830</v>
+      </c>
       <c r="D468" s="1">
-        <v>830</v>
-      </c>
-      <c r="E468" s="1">
         <v>1.0332961027900107</v>
       </c>
     </row>
-    <row r="469" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C469" s="1">
+        <v>831</v>
+      </c>
       <c r="D469" s="1">
-        <v>831</v>
-      </c>
-      <c r="E469" s="1">
         <v>1.0332938223572643</v>
       </c>
     </row>
-    <row r="470" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C470" s="1">
+        <v>832</v>
+      </c>
       <c r="D470" s="1">
-        <v>832</v>
-      </c>
-      <c r="E470" s="1">
         <v>1.0328161212714311</v>
       </c>
     </row>
-    <row r="471" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C471" s="1">
+        <v>833</v>
+      </c>
       <c r="D471" s="1">
-        <v>833</v>
-      </c>
-      <c r="E471" s="1">
         <v>1.0320412698837624</v>
       </c>
     </row>
-    <row r="472" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C472" s="1">
+        <v>834</v>
+      </c>
       <c r="D472" s="1">
-        <v>834</v>
-      </c>
-      <c r="E472" s="1">
         <v>1.0314441931010969</v>
       </c>
     </row>
-    <row r="473" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C473" s="1">
+        <v>835</v>
+      </c>
       <c r="D473" s="1">
-        <v>835</v>
-      </c>
-      <c r="E473" s="1">
         <v>1.0309040279878505</v>
       </c>
     </row>
-    <row r="474" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C474" s="1">
+        <v>836</v>
+      </c>
       <c r="D474" s="1">
-        <v>836</v>
-      </c>
-      <c r="E474" s="1">
         <v>1.0304262277527672</v>
       </c>
     </row>
-    <row r="475" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C475" s="1">
+        <v>837</v>
+      </c>
       <c r="D475" s="1">
-        <v>837</v>
-      </c>
-      <c r="E475" s="1">
         <v>1.0300763300500064</v>
       </c>
     </row>
-    <row r="476" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C476" s="1">
+        <v>838</v>
+      </c>
       <c r="D476" s="1">
-        <v>838</v>
-      </c>
-      <c r="E476" s="1">
         <v>1.0298570119093124</v>
       </c>
     </row>
-    <row r="477" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C477" s="1">
+        <v>839</v>
+      </c>
       <c r="D477" s="1">
-        <v>839</v>
-      </c>
-      <c r="E477" s="1">
         <v>1.0291206304305902</v>
       </c>
     </row>
-    <row r="478" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C478" s="1">
+        <v>840</v>
+      </c>
       <c r="D478" s="1">
-        <v>840</v>
-      </c>
-      <c r="E478" s="1">
         <v>1.0287961149357936</v>
       </c>
     </row>
-    <row r="479" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C479" s="1">
+        <v>841</v>
+      </c>
       <c r="D479" s="1">
-        <v>841</v>
-      </c>
-      <c r="E479" s="1">
         <v>1.0288333950537423</v>
       </c>
     </row>
-    <row r="480" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C480" s="1">
+        <v>842</v>
+      </c>
       <c r="D480" s="1">
-        <v>842</v>
-      </c>
-      <c r="E480" s="1">
         <v>1.028171375512416</v>
       </c>
     </row>
-    <row r="481" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C481" s="1">
+        <v>843</v>
+      </c>
       <c r="D481" s="1">
-        <v>843</v>
-      </c>
-      <c r="E481" s="1">
         <v>1.0276586747413821</v>
       </c>
     </row>
-    <row r="482" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C482" s="1">
+        <v>844</v>
+      </c>
       <c r="D482" s="1">
-        <v>844</v>
-      </c>
-      <c r="E482" s="1">
         <v>1.0271752229990569</v>
       </c>
     </row>
-    <row r="483" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C483" s="1">
+        <v>845</v>
+      </c>
       <c r="D483" s="1">
-        <v>845</v>
-      </c>
-      <c r="E483" s="1">
         <v>1.026688003585237</v>
       </c>
     </row>
-    <row r="484" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C484" s="1">
+        <v>846</v>
+      </c>
       <c r="D484" s="1">
-        <v>846</v>
-      </c>
-      <c r="E484" s="1">
         <v>1.0265157813382282</v>
       </c>
     </row>
-    <row r="485" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C485" s="1">
+        <v>847</v>
+      </c>
       <c r="D485" s="1">
-        <v>847</v>
-      </c>
-      <c r="E485" s="1">
         <v>1.0264538130570644</v>
       </c>
     </row>
-    <row r="486" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C486" s="1">
+        <v>848</v>
+      </c>
       <c r="D486" s="1">
-        <v>848</v>
-      </c>
-      <c r="E486" s="1">
         <v>1.0262104016486535</v>
       </c>
     </row>
-    <row r="487" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C487" s="1">
+        <v>849</v>
+      </c>
       <c r="D487" s="1">
-        <v>849</v>
-      </c>
-      <c r="E487" s="1">
         <v>1.0256514973271849</v>
       </c>
     </row>
-    <row r="488" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C488" s="1">
+        <v>850</v>
+      </c>
       <c r="D488" s="1">
-        <v>850</v>
-      </c>
-      <c r="E488" s="1">
         <v>1.0249807526518713</v>
       </c>
     </row>
-    <row r="489" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C489" s="1">
+        <v>851</v>
+      </c>
       <c r="D489" s="1">
-        <v>851</v>
-      </c>
-      <c r="E489" s="1">
         <v>1.0244977966557958</v>
       </c>
     </row>
-    <row r="490" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C490" s="1">
+        <v>852</v>
+      </c>
       <c r="D490" s="1">
-        <v>852</v>
-      </c>
-      <c r="E490" s="1">
         <v>1.0242411983971533</v>
       </c>
     </row>
-    <row r="491" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C491" s="1">
+        <v>853</v>
+      </c>
       <c r="D491" s="1">
-        <v>853</v>
-      </c>
-      <c r="E491" s="1">
         <v>1.0240598544191573</v>
       </c>
     </row>
-    <row r="492" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C492" s="1">
+        <v>854</v>
+      </c>
       <c r="D492" s="1">
-        <v>854</v>
-      </c>
-      <c r="E492" s="1">
         <v>1.0235215731416589</v>
       </c>
     </row>
-    <row r="493" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C493" s="1">
+        <v>855</v>
+      </c>
       <c r="D493" s="1">
-        <v>855</v>
-      </c>
-      <c r="E493" s="1">
         <v>1.0229968753113905</v>
       </c>
     </row>
-    <row r="494" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C494" s="1">
+        <v>856</v>
+      </c>
       <c r="D494" s="1">
-        <v>856</v>
-      </c>
-      <c r="E494" s="1">
         <v>1.0227746818424508</v>
       </c>
     </row>
-    <row r="495" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C495" s="1">
+        <v>857</v>
+      </c>
       <c r="D495" s="1">
-        <v>857</v>
-      </c>
-      <c r="E495" s="1">
         <v>1.0228099789754015</v>
       </c>
     </row>
-    <row r="496" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C496" s="1">
+        <v>858</v>
+      </c>
       <c r="D496" s="1">
-        <v>858</v>
-      </c>
-      <c r="E496" s="1">
         <v>1.0215209395779514</v>
       </c>
     </row>
-    <row r="497" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C497" s="1">
+        <v>859</v>
+      </c>
       <c r="D497" s="1">
-        <v>859</v>
-      </c>
-      <c r="E497" s="1">
         <v>1.0206318682544429</v>
       </c>
     </row>
-    <row r="498" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C498" s="1">
+        <v>860</v>
+      </c>
       <c r="D498" s="1">
-        <v>860</v>
-      </c>
-      <c r="E498" s="1">
         <v>1.020469065186171</v>
       </c>
     </row>
-    <row r="499" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C499" s="1">
+        <v>861</v>
+      </c>
       <c r="D499" s="1">
-        <v>861</v>
-      </c>
-      <c r="E499" s="1">
         <v>1.0200137718308064</v>
       </c>
     </row>
-    <row r="500" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C500" s="1">
+        <v>862</v>
+      </c>
       <c r="D500" s="1">
-        <v>862</v>
-      </c>
-      <c r="E500" s="1">
         <v>1.0199464494901505</v>
       </c>
     </row>
-    <row r="501" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C501" s="1">
+        <v>863</v>
+      </c>
       <c r="D501" s="1">
-        <v>863</v>
-      </c>
-      <c r="E501" s="1">
         <v>1.0196527694120603</v>
       </c>
     </row>
-    <row r="502" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C502" s="1">
+        <v>864</v>
+      </c>
       <c r="D502" s="1">
-        <v>864</v>
-      </c>
-      <c r="E502" s="1">
         <v>1.0190968395680859</v>
       </c>
     </row>
-    <row r="503" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C503" s="1">
+        <v>865</v>
+      </c>
       <c r="D503" s="1">
-        <v>865</v>
-      </c>
-      <c r="E503" s="1">
         <v>1.0190153388847005</v>
       </c>
     </row>
-    <row r="504" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C504" s="1">
+        <v>866</v>
+      </c>
       <c r="D504" s="1">
-        <v>866</v>
-      </c>
-      <c r="E504" s="1">
         <v>1.0187870973115183</v>
       </c>
     </row>
-    <row r="505" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C505" s="1">
+        <v>867</v>
+      </c>
       <c r="D505" s="1">
-        <v>867</v>
-      </c>
-      <c r="E505" s="1">
         <v>1.0181478820976615</v>
       </c>
     </row>
-    <row r="506" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C506" s="1">
+        <v>868</v>
+      </c>
       <c r="D506" s="1">
-        <v>868</v>
-      </c>
-      <c r="E506" s="1">
         <v>1.017286671713364</v>
       </c>
     </row>
-    <row r="507" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C507" s="1">
+        <v>869</v>
+      </c>
       <c r="D507" s="1">
-        <v>869</v>
-      </c>
-      <c r="E507" s="1">
         <v>1.0171024524071208</v>
       </c>
     </row>
-    <row r="508" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C508" s="1">
+        <v>870</v>
+      </c>
       <c r="D508" s="1">
-        <v>870</v>
-      </c>
-      <c r="E508" s="1">
         <v>1.0166933626021921</v>
       </c>
     </row>
-    <row r="509" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C509" s="1">
+        <v>871</v>
+      </c>
       <c r="D509" s="1">
-        <v>871</v>
-      </c>
-      <c r="E509" s="1">
         <v>1.0161808601296576</v>
       </c>
     </row>
-    <row r="510" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C510" s="1">
+        <v>872</v>
+      </c>
       <c r="D510" s="1">
-        <v>872</v>
-      </c>
-      <c r="E510" s="1">
         <v>1.0157830733392139</v>
       </c>
     </row>
-    <row r="511" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C511" s="1">
+        <v>873</v>
+      </c>
       <c r="D511" s="1">
-        <v>873</v>
-      </c>
-      <c r="E511" s="1">
         <v>1.0154241530547146</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>